--- a/受控文件/需求优先级/SRA2021-G04需求优先级0.1.0.xlsx
+++ b/受控文件/需求优先级/SRA2021-G04需求优先级0.1.0.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\仓库\受控文件\需求优先级\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9176F2F7-42CA-4544-A107-4CD8B93F7B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4276FF-50A5-49BF-A7B0-9FF4CD155AD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$174</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1027,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1074,162 +1077,162 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <f>C2+D2</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <f>E2/E$173</f>
-        <v>1.5</v>
+        <v>2.125</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>G2/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <f>I2/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
         <f>E2/(H2+J2)</f>
-        <v>3.5999999999999996</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E71" si="0">C3+D3</f>
-        <v>9</v>
+        <f>C3+D3</f>
+        <v>16</v>
       </c>
       <c r="F3">
         <f>E3/E$173</f>
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f>G3/G$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <f>I3/I$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K71" si="1">E3/(H3+J3)</f>
-        <v>2.25</v>
+        <f>E3/(H3+J3)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C4+D4</f>
+        <v>16</v>
       </c>
       <c r="F4">
         <f>E4/E$173</f>
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f>G4/G$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <f>I4/I$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
+        <f>E4/(H4+J4)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C5+D5</f>
+        <v>16</v>
       </c>
       <c r="F5">
         <f>E5/E$173</f>
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f>G5/G$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>I5/I$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
+        <f>E5/(H5+J5)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1237,79 +1240,79 @@
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>C6+D6</f>
+        <v>10</v>
       </c>
       <c r="F6">
         <f>E6/E$173</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <f>G6/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f>I6/I$173</f>
-        <v>2.3333333333333335</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <f>E6/(H6+J6)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>C7+D7</f>
+        <v>10</v>
       </c>
       <c r="F7">
         <f>E7/E$173</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <f>G7/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <f>I7/I$173</f>
-        <v>2.3333333333333335</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>3.8181818181818179</v>
+        <f>E7/(H7+J7)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1317,39 +1320,39 @@
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>C8+D8</f>
+        <v>10</v>
       </c>
       <c r="F8">
         <f>E8/E$173</f>
-        <v>1.875</v>
+        <v>1.25</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <f>G8/G$173</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
       </c>
       <c r="J8">
         <f>I8/I$173</f>
-        <v>2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
+        <f>E8/(H8+J8)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1357,79 +1360,79 @@
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>C9+D9</f>
+        <v>10</v>
       </c>
       <c r="F9">
         <f>E9/E$173</f>
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <f>G9/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f>I9/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
+        <f>E9/(H9+J9)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>C10+D10</f>
+        <v>10</v>
       </c>
       <c r="F10">
         <f>E10/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
         <f>G10/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
         <f>I10/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>8.25</v>
+        <f>E10/(H10+J10)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1437,39 +1440,39 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>C11+D11</f>
+        <v>10</v>
       </c>
       <c r="F11">
         <f>E11/E$173</f>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
         <f>G11/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
         <f>I11/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>E11/(H11+J11)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1477,199 +1480,199 @@
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C12+D12</f>
+        <v>12</v>
       </c>
       <c r="F12">
         <f>E12/E$173</f>
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f>G12/G$173</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <f>I12/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>2.6249999999999996</v>
+        <f>E12/(H12+J12)</f>
+        <v>14.400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C13+D13</f>
+        <v>14</v>
       </c>
       <c r="F13">
         <f>E13/E$173</f>
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <f>G13/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f>I13/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>2.625</v>
+        <f>E13/(H13+J13)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C14+D14</f>
+        <v>14</v>
       </c>
       <c r="F14">
         <f>E14/E$173</f>
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <f>G14/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f>I14/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>2.625</v>
+        <f>E14/(H14+J14)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C15+D15</f>
+        <v>14</v>
       </c>
       <c r="F15">
         <f>E15/E$173</f>
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
         <f>G15/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f>I15/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>2.6249999999999996</v>
+        <f>E15/(H15+J15)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C16+D16</f>
+        <v>9</v>
       </c>
       <c r="F16">
         <f>E16/E$173</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
         <f>G16/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <f>I16/I$173</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <f>E16/(H16+J16)</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1680,36 +1683,36 @@
         <v>156</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C17+D17</f>
+        <v>11</v>
       </c>
       <c r="F17">
         <f>E17/E$173</f>
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
         <f>G17/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17">
         <f>I17/I$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
+        <f>E17/(H17+J17)</f>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1720,84 +1723,84 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C18+D18</f>
+        <v>11</v>
       </c>
       <c r="F18">
         <f>E18/E$173</f>
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
         <f>G18/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
         <f>I18/I$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
         <f>E18/(H18+J18)</f>
-        <v>4.2</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>C19+D19</f>
+        <v>11</v>
       </c>
       <c r="F19">
         <f>E19/E$173</f>
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <f>G19/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <f>I19/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
+        <f>E19/(H19+J19)</f>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1806,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>C20+D20</f>
         <v>8</v>
       </c>
       <c r="F20">
@@ -1814,62 +1817,62 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f>G20/G$173</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I20">
         <v>2</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
       </c>
       <c r="J20">
         <f>I20/I$173</f>
-        <v>2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E20/(H20+J20)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21">
         <f>C21+D21</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <f>E21/E$173</f>
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <f>G21/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <f>I21/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
-        <v>2.6999999999999997</v>
+        <f>E21/(H21+J21)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1877,39 +1880,39 @@
         <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C22+D22</f>
+        <v>12</v>
       </c>
       <c r="F22">
         <f>E22/E$173</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22">
         <f>G22/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
         <f>I22/I$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>E22/(H22+J22)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1917,79 +1920,79 @@
         <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C23+D23</f>
+        <v>12</v>
       </c>
       <c r="F23">
         <f>E23/E$173</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
         <f>G23/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
         <f>I23/I$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>E23/(H23+J23)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C24+D24</f>
+        <v>12</v>
       </c>
       <c r="F24">
         <f>E24/E$173</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <f>G24/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <f>I24/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
+        <f>E24/(H24+J24)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1997,119 +2000,119 @@
         <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C25+D25</f>
+        <v>12</v>
       </c>
       <c r="F25">
         <f>E25/E$173</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <f>G25/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <f>I25/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E25/(H25+J25)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C26+D26</f>
+        <v>12</v>
       </c>
       <c r="F26">
         <f>E26/E$173</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <f>G26/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <f>I26/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E26/(H26+J26)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>6</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C27+D27</f>
+        <v>12</v>
       </c>
       <c r="F27">
         <f>E27/E$173</f>
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
         <f>G27/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <f>I27/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
-        <v>2.6249999999999996</v>
+        <f>E27/(H27+J27)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -2117,79 +2120,79 @@
         <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C28+D28</f>
+        <v>15</v>
       </c>
       <c r="F28">
         <f>E28/E$173</f>
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
         <f>G28/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <f>I28/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
-        <v>3.4285714285714288</v>
+        <f>E28/(H28+J28)</f>
+        <v>11.249999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C29+D29</f>
+        <v>15</v>
       </c>
       <c r="F29">
         <f>E29/E$173</f>
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
         <f>G29/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <f>I29/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
-        <v>3.4285714285714288</v>
+        <f>E29/(H29+J29)</f>
+        <v>11.249999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -2197,39 +2200,39 @@
         <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C30+D30</f>
+        <v>11</v>
       </c>
       <c r="F30">
         <f>E30/E$173</f>
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
         <f>G30/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <f>I30/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000004</v>
+        <f>E30/(H30+J30)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -2237,16 +2240,16 @@
         <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>C31+D31</f>
         <v>11</v>
       </c>
       <c r="F31">
@@ -2254,22 +2257,22 @@
         <v>1.375</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <f>G31/G$173</f>
-        <v>2.3333333333333335</v>
+        <v>0.5</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <f>I31/I$173</f>
-        <v>2.6666666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <f>E31/(H31+J31)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -2277,39 +2280,39 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C32+D32</f>
+        <v>11</v>
       </c>
       <c r="F32">
         <f>E32/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <f>G32/G$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <f>I32/I$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>E32/(H32+J32)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -2317,87 +2320,87 @@
         <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C33+D33</f>
+        <v>11</v>
       </c>
       <c r="F33">
         <f>E33/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <f>G33/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <f>I33/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E33/(H33+J33)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C34+D34</f>
+        <v>11</v>
       </c>
       <c r="F34">
         <f>E34/E$173</f>
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <f>G34/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <f>I34/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
-        <v>6.75</v>
+        <f>E34/(H34+J34)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2414,150 +2417,150 @@
         <v>1.375</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <f>G35/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <f>I35/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
-        <v>8.25</v>
+        <f>E35/(H35+J35)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C36+D36</f>
+        <v>11</v>
       </c>
       <c r="F36">
         <f>E36/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
         <f>G36/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36">
         <f>I36/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
-        <v>4.2857142857142865</v>
+        <f>E36/(H36+J36)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C37+D37</f>
+        <v>11</v>
       </c>
       <c r="F37">
         <f>E37/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
         <f>G37/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37">
         <f>I37/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
-        <v>4.2857142857142865</v>
+        <f>E37/(H37+J37)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C38+D38</f>
+        <v>11</v>
       </c>
       <c r="F38">
         <f>E38/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <f>G38/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38">
         <f>I38/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
+        <f>E38/(H38+J38)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -2566,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f>C39+D39</f>
         <v>11</v>
       </c>
       <c r="F39">
@@ -2574,102 +2577,102 @@
         <v>1.375</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <f>G39/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <f>I39/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
-        <v>4.125</v>
+        <f>E39/(H39+J39)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>C40+D40</f>
+        <v>12</v>
       </c>
       <c r="F40">
         <f>E40/E$173</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
         <f>G40/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <f>I40/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
-        <v>2.2499999999999996</v>
+        <f>E40/(H40+J40)</f>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C41+D41</f>
+        <v>12</v>
       </c>
       <c r="F41">
         <f>E41/E$173</f>
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41">
         <f>G41/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <f>I41/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
-        <v>2.6249999999999996</v>
+        <f>E41/(H41+J41)</f>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2677,167 +2680,167 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>C42+D42</f>
+        <v>10</v>
       </c>
       <c r="F42">
         <f>E42/E$173</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
         <f>G42/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <f>I42/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
-        <v>2.2499999999999996</v>
+        <f>E42/(H42+J42)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>C43+D43</f>
+        <v>10</v>
       </c>
       <c r="F43">
         <f>E43/E$173</f>
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43">
         <f>G43/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43">
         <f>I43/I$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <f>E43/(H43+J43)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
         <v>7</v>
       </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>C44+D44</f>
+        <v>13</v>
       </c>
       <c r="F44">
         <f>E44/E$173</f>
-        <v>1.5</v>
+        <v>1.625</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <f>G44/G$173</f>
-        <v>2.3333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J44">
         <f>I44/I$173</f>
-        <v>2.3333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
-        <v>2.5714285714285712</v>
+        <f>E44/(H44+J44)</f>
+        <v>9.75</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>C45+D45</f>
+        <v>11</v>
       </c>
       <c r="F45">
         <f>E45/E$173</f>
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <f>G45/G$173</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <f>I45/I$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>E45/(H45+J45)</f>
+        <v>9.4285714285714306</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -2846,150 +2849,150 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f>C46+D46</f>
         <v>11</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F49" si="2">E46/E$173</f>
+        <f>E46/E$173</f>
         <v>1.375</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <f>G46/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I46">
         <v>4</v>
       </c>
       <c r="J46">
         <f>I46/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
+        <f>E46/(H46+J46)</f>
+        <v>9.4285714285714306</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C47+D47</f>
+        <v>6</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
-        <v>1.125</v>
+        <f>E47/E$173</f>
+        <v>0.75</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <f>G47/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <f>I47/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E47/(H47+J47)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C48+D48</f>
+        <v>12</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
-        <v>1.125</v>
+        <f>E48/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48">
         <f>G48/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I48">
         <v>4</v>
       </c>
       <c r="J48">
         <f>I48/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E48/(H48+J48)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C49+D49</f>
+        <v>12</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>E49/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
       <c r="H49">
         <f>G49/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <f>I49/I$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
-        <v>3.4285714285714288</v>
+        <f>E49/(H49+J49)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2997,119 +3000,119 @@
         <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C50+D50</f>
+        <v>12</v>
       </c>
       <c r="F50">
         <f>E50/E$173</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <f>G50/G$173</f>
-        <v>2.3333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J50">
         <f>I50/I$173</f>
-        <v>2.3333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
-        <v>1.7142857142857142</v>
+        <f>E50/(H50+J50)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>6</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C51+D51</f>
+        <v>12</v>
       </c>
       <c r="F51">
         <f>E51/E$173</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51">
         <f>G51/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51">
         <f>I51/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
-        <v>6.75</v>
+        <f>E51/(H51+J51)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <f>C52+D52</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <f>E52/E$173</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="G52">
         <v>4</v>
       </c>
       <c r="H52">
         <f>G52/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I52">
         <v>4</v>
       </c>
       <c r="J52">
         <f>I52/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
-        <v>3.375</v>
+        <f>E52/(H52+J52)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -3117,39 +3120,39 @@
         <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C53+D53</f>
+        <v>12</v>
       </c>
       <c r="F53">
         <f>E53/E$173</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <f>G53/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
       <c r="J53">
         <f>I53/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
-        <v>2.6999999999999997</v>
+        <f>E53/(H53+J53)</f>
+        <v>8.9999999999999982</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -3157,39 +3160,39 @@
         <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C54+D54</f>
+        <v>12</v>
       </c>
       <c r="F54">
         <f>E54/E$173</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <f>G54/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I54">
         <v>5</v>
       </c>
       <c r="J54">
         <f>I54/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
-        <v>2.6999999999999997</v>
+        <f>E54/(H54+J54)</f>
+        <v>8.9999999999999982</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -3197,39 +3200,39 @@
         <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C55+D55</f>
+        <v>12</v>
       </c>
       <c r="F55">
         <f>E55/E$173</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <f>G55/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I55">
         <v>5</v>
       </c>
       <c r="J55">
         <f>I55/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
-        <v>2.6999999999999997</v>
+        <f>E55/(H55+J55)</f>
+        <v>8.9999999999999982</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -3237,39 +3240,39 @@
         <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C56+D56</f>
+        <v>13</v>
       </c>
       <c r="F56">
         <f>E56/E$173</f>
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="G56">
         <v>4</v>
       </c>
       <c r="H56">
         <f>G56/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J56">
         <f>I56/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K56">
-        <f t="shared" si="1"/>
-        <v>3.375</v>
+        <f>E56/(H56+J56)</f>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -3277,39 +3280,39 @@
         <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C57+D57</f>
+        <v>10</v>
       </c>
       <c r="F57">
         <f>E57/E$173</f>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <f>G57/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I57">
         <v>4</v>
       </c>
       <c r="J57">
         <f>I57/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K57">
-        <f t="shared" si="1"/>
-        <v>3.375</v>
+        <f>E57/(H57+J57)</f>
+        <v>8.571428571428573</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -3317,96 +3320,96 @@
         <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C58+D58</f>
+        <v>10</v>
       </c>
       <c r="F58">
         <f>E58/E$173</f>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58">
         <f>G58/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58">
         <f>I58/I$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K58">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <f>E58/(H58+J58)</f>
+        <v>8.571428571428573</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>C59+D59</f>
+        <v>10</v>
       </c>
       <c r="F59">
         <f>E59/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G59">
         <v>3</v>
       </c>
       <c r="H59">
         <f>G59/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59">
         <f>I59/I$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <f>E59/(H59+J59)</f>
+        <v>8.571428571428573</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f>C60+D60</f>
         <v>10</v>
       </c>
       <c r="F60">
@@ -3418,18 +3421,18 @@
       </c>
       <c r="H60">
         <f>G60/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <f>I60/I$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>E60/(H60+J60)</f>
+        <v>8.571428571428573</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -3437,16 +3440,16 @@
         <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f>C61+D61</f>
         <v>10</v>
       </c>
       <c r="F61">
@@ -3458,35 +3461,35 @@
       </c>
       <c r="H61">
         <f>G61/G$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61">
         <f>I61/I$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K61">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>E61/(H61+J61)</f>
+        <v>8.571428571428573</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f>C62+D62</f>
         <v>10</v>
       </c>
       <c r="F62">
@@ -3494,62 +3497,62 @@
         <v>1.25</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <f>G62/G$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I62">
         <v>3</v>
       </c>
       <c r="J62">
         <f>I62/I$173</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K62">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>E62/(H62+J62)</f>
+        <v>8.571428571428573</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C63+D63</f>
+        <v>10</v>
       </c>
       <c r="F63">
         <f>E63/E$173</f>
-        <v>0.875</v>
+        <v>1.25</v>
       </c>
       <c r="G63">
         <v>4</v>
       </c>
       <c r="H63">
         <f>G63/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <f>I63/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K63">
-        <f t="shared" si="1"/>
-        <v>2.625</v>
+        <f>E63/(H63+J63)</f>
+        <v>8.571428571428573</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3557,79 +3560,79 @@
         <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C64+D64</f>
+        <v>11</v>
       </c>
       <c r="F64">
         <f>E64/E$173</f>
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="G64">
         <v>4</v>
       </c>
       <c r="H64">
         <f>G64/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I64">
         <v>4</v>
       </c>
       <c r="J64">
         <f>I64/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K64">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E64/(H64+J64)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>C65+D65</f>
+        <v>11</v>
       </c>
       <c r="F65">
         <f>E65/E$173</f>
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="G65">
         <v>4</v>
       </c>
       <c r="H65">
         <f>G65/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I65">
         <v>4</v>
       </c>
       <c r="J65">
         <f>I65/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K65">
-        <f t="shared" si="1"/>
-        <v>2.625</v>
+        <f>E65/(H65+J65)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -3637,79 +3640,79 @@
         <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <v>6</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>C66+D66</f>
+        <v>11</v>
       </c>
       <c r="F66">
         <f>E66/E$173</f>
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H66">
         <f>G66/G$173</f>
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J66">
         <f>I66/I$173</f>
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K66">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
+        <f>E66/(H66+J66)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67">
         <f>C67+D67</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F67">
         <f>E67/E$173</f>
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="G67">
         <v>4</v>
       </c>
       <c r="H67">
         <f>G67/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I67">
         <v>4</v>
       </c>
       <c r="J67">
         <f>I67/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K67">
-        <f t="shared" si="1"/>
-        <v>2.625</v>
+        <f>E67/(H67+J67)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
@@ -3717,39 +3720,39 @@
         <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
       <c r="E68">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C68+D68</f>
+        <v>11</v>
       </c>
       <c r="F68">
         <f>E68/E$173</f>
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H68">
         <f>G68/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J68">
         <f>I68/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K68">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>E68/(H68+J68)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -3757,239 +3760,239 @@
         <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>5</v>
       </c>
       <c r="E69">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C69+D69</f>
+        <v>11</v>
       </c>
       <c r="F69">
         <f>E69/E$173</f>
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <f>G69/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <f>I69/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K69">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>E69/(H69+J69)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C70+D70</f>
+        <v>11</v>
       </c>
       <c r="F70">
         <f>E70/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H70">
         <f>G70/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <f>I70/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K70">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E70/(H70+J70)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C71+D71</f>
+        <v>11</v>
       </c>
       <c r="F71">
         <f>E71/E$173</f>
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71">
         <f>G71/G$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <f>I71/I$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K71">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <f>E71/(H71+J71)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E78" si="3">C72+D72</f>
-        <v>10</v>
+        <f>C72+D72</f>
+        <v>11</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F79" si="4">E72/E$173</f>
-        <v>1.25</v>
+        <f>E72/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72">
         <f>G72/G$173</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J74" si="5">I72/I$173</f>
-        <v>1.6666666666666667</v>
+        <f>I72/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K140" si="6">E72/(H72+J72)</f>
-        <v>3.7499999999999996</v>
+        <f>E72/(H72+J72)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>C73+D73</f>
+        <v>11</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
+        <f>E73/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H95" si="7">G73/G$173</f>
-        <v>1.6666666666666667</v>
+        <f>G73/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <f>I73/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K73">
-        <f t="shared" si="6"/>
-        <v>4.2</v>
+        <f>E73/(H73+J73)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>C74+D74</f>
+        <v>11</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
+        <f>E74/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G74">
         <v>4</v>
       </c>
       <c r="H74">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <f>G74/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I74">
         <v>4</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <f>I74/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K74">
-        <f t="shared" si="6"/>
-        <v>5.25</v>
+        <f>E74/(H74+J74)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -3997,39 +4000,39 @@
         <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f>C75+D75</f>
+        <v>11</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>E75/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f>G75/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J75">
         <f>I75/I$173</f>
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K75">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>E75/(H75+J75)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
@@ -4037,39 +4040,39 @@
         <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>C76+D76</f>
+        <v>11</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
+        <f>E76/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <f>G76/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I76">
         <v>5</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76:J85" si="8">I76/I$173</f>
-        <v>1.6666666666666667</v>
+        <f>I76/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K76">
-        <f t="shared" si="6"/>
-        <v>4.2</v>
+        <f>E76/(H76+J76)</f>
+        <v>8.2499999999999982</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
@@ -4077,7 +4080,7 @@
         <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -4086,70 +4089,70 @@
         <v>5</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f>C77+D77</f>
         <v>11</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f>E77/E$173</f>
         <v>1.375</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <f>G77/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J77">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <f>I77/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K77">
-        <f t="shared" si="6"/>
-        <v>8.25</v>
+        <f>E77/(H77+J77)</f>
+        <v>8.2499999999999982</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f>C78+D78</f>
+        <v>11</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
-        <v>1.625</v>
+        <f>E78/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <f>G78/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J78">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <f>I78/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K78">
-        <f t="shared" si="6"/>
-        <v>9.75</v>
+        <f>E78/(H78+J78)</f>
+        <v>8.2499999999999982</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -4157,39 +4160,39 @@
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <f>C79+D79</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>E79/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G79">
         <v>3</v>
       </c>
       <c r="H79">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>G79/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J79">
-        <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <f>I79/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K79">
-        <f t="shared" si="6"/>
-        <v>3.4285714285714288</v>
+        <f>E79/(H79+J79)</f>
+        <v>8.2499999999999982</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -4197,119 +4200,119 @@
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <f t="shared" ref="E80:E90" si="9">C80+D80</f>
-        <v>8</v>
+        <f>C80+D80</f>
+        <v>5</v>
       </c>
       <c r="F80">
         <f>E80/E$173</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <f>G80/G$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <f>I80/I$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K80">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E80/(H80+J80)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f>C81+D81</f>
+        <v>10</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:F94" si="10">E81/E$173</f>
-        <v>0.875</v>
+        <f>E81/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G81">
         <v>4</v>
       </c>
       <c r="H81">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <f>G81/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I81">
         <v>4</v>
       </c>
       <c r="J81">
-        <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <f>I81/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K81">
-        <f t="shared" si="6"/>
-        <v>2.625</v>
+        <f>E81/(H81+J81)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f>C82+D82</f>
+        <v>10</v>
       </c>
       <c r="F82">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
+        <f>E82/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>G82/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>I82/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K82">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
+        <f>E82/(H82+J82)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -4317,39 +4320,39 @@
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f>C83+D83</f>
+        <v>10</v>
       </c>
       <c r="F83">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
+        <f>E83/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H83">
-        <f t="shared" si="7"/>
+        <f>G83/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>I83/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K83">
-        <f t="shared" si="6"/>
-        <v>4.2</v>
+        <f>E83/(H83+J83)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
@@ -4357,119 +4360,119 @@
         <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>C84+D84</f>
+        <v>10</v>
       </c>
       <c r="F84">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>E84/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f>G84/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J84">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>I84/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K84">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>E84/(H84+J84)</f>
+        <v>7.4999999999999991</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f>C85+D85</f>
+        <v>10</v>
       </c>
       <c r="F85">
-        <f t="shared" si="10"/>
-        <v>1.125</v>
+        <f>E85/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <f>G85/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I85">
         <v>5</v>
       </c>
       <c r="J85">
-        <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <f>I85/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K85">
-        <f t="shared" si="6"/>
-        <v>2.6999999999999997</v>
+        <f>E85/(H85+J85)</f>
+        <v>7.4999999999999991</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
+        <f>C86+D86</f>
         <v>10</v>
       </c>
       <c r="F86">
-        <f t="shared" si="10"/>
+        <f>E86/E$173</f>
         <v>1.25</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
       <c r="H86">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>G86/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J86">
         <f>I86/I$173</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K86">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>E86/(H86+J86)</f>
+        <v>7.4999999999999991</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -4477,39 +4480,39 @@
         <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
+        <f>C87+D87</f>
         <v>10</v>
       </c>
       <c r="F87">
-        <f t="shared" si="10"/>
+        <f>E87/E$173</f>
         <v>1.25</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
       <c r="H87">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>G87/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J87">
-        <f t="shared" ref="J87:J96" si="11">I87/I$173</f>
-        <v>1</v>
+        <f>I87/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K87">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>E87/(H87+J87)</f>
+        <v>7.4999999999999991</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
@@ -4517,79 +4520,79 @@
         <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>C88+D88</f>
+        <v>10</v>
       </c>
       <c r="F88">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>E88/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <f>G88/G$173</f>
+        <v>0.5</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J88">
-        <f t="shared" si="11"/>
-        <v>1.3333333333333333</v>
+        <f>I88/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K88">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E88/(H88+J88)</f>
+        <v>7.4999999999999991</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>C89+D89</f>
+        <v>11</v>
       </c>
       <c r="F89">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>E89/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <f>G89/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89">
-        <f t="shared" si="11"/>
-        <v>1.3333333333333333</v>
+        <f>I89/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K89">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E89/(H89+J89)</f>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
@@ -4597,79 +4600,79 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>C90+D90</f>
+        <v>11</v>
       </c>
       <c r="F90">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>E90/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <f>G90/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I90">
         <v>4</v>
       </c>
       <c r="J90">
-        <f t="shared" si="11"/>
-        <v>1.3333333333333333</v>
+        <f>I90/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K90">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E90/(H90+J90)</f>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <f>C91+D91</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
+        <f>E91/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91">
-        <f t="shared" si="7"/>
+        <f>G91/G$173</f>
         <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J91">
-        <f t="shared" si="11"/>
-        <v>1.3333333333333333</v>
+        <f>I91/I$173</f>
+        <v>0.5</v>
       </c>
       <c r="K91">
-        <f t="shared" si="6"/>
-        <v>3.0000000000000004</v>
+        <f>E91/(H91+J91)</f>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
@@ -4677,39 +4680,39 @@
         <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D92">
         <v>5</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92:E102" si="12">C92+D92</f>
-        <v>8</v>
+        <f>C92+D92</f>
+        <v>11</v>
       </c>
       <c r="F92">
-        <f t="shared" si="10"/>
+        <f>E92/E$173</f>
+        <v>1.375</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <f>G92/G$173</f>
         <v>1</v>
       </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="I92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J92">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666667</v>
+        <f>I92/I$173</f>
+        <v>0.5</v>
       </c>
       <c r="K92">
-        <f t="shared" si="6"/>
-        <v>2.9999999999999996</v>
+        <f>E92/(H92+J92)</f>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -4717,39 +4720,39 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>C93+D93</f>
+        <v>12</v>
       </c>
       <c r="F93">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>E93/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H93">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>G93/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I93">
         <v>5</v>
       </c>
       <c r="J93">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666667</v>
+        <f>I93/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K93">
-        <f t="shared" si="6"/>
-        <v>2.9999999999999996</v>
+        <f>E93/(H93+J93)</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -4757,119 +4760,119 @@
         <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E94">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f>C94+D94</f>
+        <v>12</v>
       </c>
       <c r="F94">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
+        <f>E94/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H94">
         <f>G94/G$173</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I94">
         <v>5</v>
       </c>
       <c r="J94">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666667</v>
+        <f>I94/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
-        <v>2.6249999999999996</v>
+        <f>E94/(H94+J94)</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f>C95+D95</f>
+        <v>12</v>
       </c>
       <c r="F95">
         <f>E95/E$173</f>
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H95">
-        <f t="shared" si="7"/>
-        <v>2.3333333333333335</v>
+        <f>G95/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I95">
         <v>5</v>
       </c>
       <c r="J95">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666667</v>
+        <f>I95/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
-        <v>2.75</v>
+        <f>E95/(H95+J95)</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>C96+D96</f>
+        <v>12</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F96:F118" si="13">E96/E$173</f>
-        <v>1.25</v>
+        <f>E96/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H96">
         <f>G96/G$173</f>
-        <v>2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f>I96/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f>E96/(H96+J96)</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
@@ -4877,78 +4880,78 @@
         <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>C97+D97</f>
+        <v>12</v>
       </c>
       <c r="F97">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>E97/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
       <c r="H97">
-        <f t="shared" ref="H97:H114" si="14">G97/G$173</f>
-        <v>1.6666666666666667</v>
+        <f>G97/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I97">
         <v>5</v>
       </c>
       <c r="J97">
         <f>I97/I$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E97/(H97+J97)</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <f t="shared" si="12"/>
+        <f>C98+D98</f>
         <v>9</v>
       </c>
       <c r="F98">
-        <f t="shared" si="13"/>
+        <f>E98/E$173</f>
         <v>1.125</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <f t="shared" si="14"/>
+        <f>G98/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <f t="shared" ref="J98:J162" si="15">I98/I$173</f>
+        <f>I98/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
+        <f>E98/(H98+J98)</f>
         <v>6.75</v>
       </c>
     </row>
@@ -4957,239 +4960,239 @@
         <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f>C99+D99</f>
+        <v>9</v>
       </c>
       <c r="F99">
-        <f t="shared" si="13"/>
-        <v>1.375</v>
+        <f>E99/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <f t="shared" si="14"/>
+        <f>G99/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <f t="shared" si="15"/>
+        <f>I99/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K99">
-        <f t="shared" si="6"/>
-        <v>8.25</v>
+        <f>E99/(H99+J99)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>C100+D100</f>
+        <v>9</v>
       </c>
       <c r="F100">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>E100/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>G100/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I100">
         <v>4</v>
       </c>
       <c r="J100">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I100/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
-        <v>4.2857142857142865</v>
+        <f>E100/(H100+J100)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C101">
         <v>6</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>C101+D101</f>
+        <v>9</v>
       </c>
       <c r="F101">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>E101/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>G101/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I101">
         <v>4</v>
       </c>
       <c r="J101">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I101/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
-        <v>4.2857142857142865</v>
+        <f>E101/(H101+J101)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>C102+D102</f>
+        <v>9</v>
       </c>
       <c r="F102">
-        <f t="shared" si="13"/>
-        <v>1.25</v>
+        <f>E102/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G102">
         <v>4</v>
       </c>
       <c r="H102">
-        <f t="shared" si="14"/>
-        <v>1.3333333333333333</v>
+        <f>G102/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I102">
         <v>4</v>
       </c>
       <c r="J102">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I102/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K102">
-        <f t="shared" si="6"/>
-        <v>3.75</v>
+        <f>E102/(H102+J102)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="C103">
         <v>6</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <f>C103+D103</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F103">
-        <f t="shared" si="13"/>
-        <v>1.375</v>
+        <f>E103/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G103">
         <v>4</v>
       </c>
       <c r="H103">
-        <f t="shared" si="14"/>
-        <v>1.3333333333333333</v>
+        <f>G103/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I103">
         <v>4</v>
       </c>
       <c r="J103">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I103/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
-        <v>4.125</v>
+        <f>E103/(H103+J103)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <f t="shared" ref="E104:E122" si="16">C104+D104</f>
-        <v>6</v>
+        <f>C104+D104</f>
+        <v>9</v>
       </c>
       <c r="F104">
-        <f t="shared" si="13"/>
-        <v>0.75</v>
+        <f>E104/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>G104/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J104">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I104/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K104">
-        <f t="shared" si="6"/>
-        <v>2.2499999999999996</v>
+        <f>E104/(H104+J104)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -5197,159 +5200,159 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <f t="shared" si="16"/>
-        <v>7</v>
+        <f>C105+D105</f>
+        <v>9</v>
       </c>
       <c r="F105">
-        <f t="shared" si="13"/>
-        <v>0.875</v>
+        <f>E105/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>G105/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J105">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I105/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K105">
-        <f t="shared" si="6"/>
-        <v>2.6249999999999996</v>
+        <f>E105/(H105+J105)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f>C106+D106</f>
+        <v>9</v>
       </c>
       <c r="F106">
-        <f t="shared" si="13"/>
-        <v>0.75</v>
+        <f>E106/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>G106/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J106">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I106/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K106">
-        <f t="shared" si="6"/>
-        <v>2.2499999999999996</v>
+        <f>E106/(H106+J106)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <f>C107+D107</f>
         <v>9</v>
       </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
       <c r="F107">
-        <f t="shared" si="13"/>
-        <v>1.75</v>
+        <f>E107/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>G107/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J107">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I107/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K107">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f>E107/(H107+J107)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f>C108+D108</f>
+        <v>9</v>
       </c>
       <c r="F108">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f>E108/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H108">
-        <f t="shared" si="14"/>
-        <v>2.3333333333333335</v>
+        <f>G108/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I108">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J108">
-        <f t="shared" si="15"/>
-        <v>2.3333333333333335</v>
+        <f>I108/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K108">
-        <f t="shared" si="6"/>
-        <v>2.5714285714285712</v>
+        <f>E108/(H108+J108)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
@@ -5357,39 +5360,39 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f>C109+D109</f>
+        <v>9</v>
       </c>
       <c r="F109">
         <f>E109/E$173</f>
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H109">
         <f>G109/G$173</f>
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J109">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I109/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K109">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>E109/(H109+J109)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
@@ -5397,119 +5400,119 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C110">
         <v>6</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f>C110+D110</f>
+        <v>9</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="F110:F113" si="17">E110/E$173</f>
-        <v>1.375</v>
+        <f>E110/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H110">
         <f>G110/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I110">
         <v>4</v>
       </c>
       <c r="J110">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I110/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K110">
-        <f t="shared" si="6"/>
-        <v>3.6666666666666665</v>
+        <f>E110/(H110+J110)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>4</v>
       </c>
       <c r="E111">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C111+D111</f>
+        <v>10</v>
       </c>
       <c r="F111">
-        <f t="shared" si="17"/>
-        <v>1.125</v>
+        <f>E111/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G111">
         <v>5</v>
       </c>
       <c r="H111">
         <f>G111/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I111">
         <v>4</v>
       </c>
       <c r="J111">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I111/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K111">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E111/(H111+J111)</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C112+D112</f>
+        <v>10</v>
       </c>
       <c r="F112">
-        <f t="shared" si="17"/>
-        <v>1.125</v>
+        <f>E112/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G112">
         <v>5</v>
       </c>
       <c r="H112">
         <f>G112/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I112">
         <v>4</v>
       </c>
       <c r="J112">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I112/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K112">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E112/(H112+J112)</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
@@ -5517,39 +5520,39 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <f>C113+D113</f>
+        <v>10</v>
       </c>
       <c r="F113">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f>E113/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H113">
         <f>G113/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J113">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I113/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K113">
-        <f t="shared" si="6"/>
-        <v>3.4285714285714288</v>
+        <f>E113/(H113+J113)</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
@@ -5557,279 +5560,279 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <f>C114+D114</f>
+        <v>10</v>
       </c>
       <c r="F114">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>E114/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H114">
-        <f t="shared" si="14"/>
-        <v>2.3333333333333335</v>
+        <f>G114/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I114">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J114">
-        <f t="shared" si="15"/>
-        <v>2.3333333333333335</v>
+        <f>I114/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K114">
-        <f t="shared" si="6"/>
-        <v>1.7142857142857142</v>
+        <f>E114/(H114+J114)</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C115+D115</f>
+        <v>11</v>
       </c>
       <c r="F115">
         <f>E115/E$173</f>
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H115">
         <f>G115/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J115">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <f>I115/I$173</f>
+        <v>1</v>
       </c>
       <c r="K115">
-        <f t="shared" si="6"/>
-        <v>6.75</v>
+        <f>E115/(H115+J115)</f>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C116+D116</f>
+        <v>11</v>
       </c>
       <c r="F116">
-        <f t="shared" si="13"/>
-        <v>1.125</v>
+        <f>E116/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G116">
         <v>4</v>
       </c>
       <c r="H116">
-        <f t="shared" ref="H116:H132" si="18">G116/G$173</f>
-        <v>1.3333333333333333</v>
+        <f>G116/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J116">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I116/I$173</f>
+        <v>1</v>
       </c>
       <c r="K116">
-        <f t="shared" si="6"/>
-        <v>3.375</v>
+        <f>E116/(H116+J116)</f>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C117+D117</f>
+        <v>11</v>
       </c>
       <c r="F117">
-        <f t="shared" si="13"/>
-        <v>1.125</v>
+        <f>E117/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G117">
         <v>5</v>
       </c>
       <c r="H117">
-        <f t="shared" si="18"/>
-        <v>1.6666666666666667</v>
+        <f>G117/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I117">
         <v>5</v>
       </c>
       <c r="J117">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I117/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K117">
-        <f t="shared" si="6"/>
-        <v>2.6999999999999997</v>
+        <f>E117/(H117+J117)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C118+D118</f>
+        <v>11</v>
       </c>
       <c r="F118">
-        <f t="shared" si="13"/>
-        <v>1.125</v>
+        <f>E118/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G118">
         <v>5</v>
       </c>
       <c r="H118">
-        <f t="shared" si="18"/>
-        <v>1.6666666666666667</v>
+        <f>G118/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I118">
         <v>5</v>
       </c>
       <c r="J118">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I118/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K118">
-        <f t="shared" si="6"/>
-        <v>2.6999999999999997</v>
+        <f>E118/(H118+J118)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C119+D119</f>
+        <v>11</v>
       </c>
       <c r="F119">
         <f>E119/E$173</f>
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="G119">
         <v>5</v>
       </c>
       <c r="H119">
-        <f t="shared" si="18"/>
-        <v>1.6666666666666667</v>
+        <f>G119/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I119">
         <v>5</v>
       </c>
       <c r="J119">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I119/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K119">
-        <f t="shared" si="6"/>
-        <v>2.6999999999999997</v>
+        <f>E119/(H119+J119)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C120+D120</f>
+        <v>11</v>
       </c>
       <c r="F120">
-        <f t="shared" ref="F120:F130" si="19">E120/E$173</f>
-        <v>1.125</v>
+        <f>E120/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H120">
-        <f t="shared" si="18"/>
-        <v>1.3333333333333333</v>
+        <f>G120/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J120">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I120/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K120">
-        <f t="shared" si="6"/>
-        <v>3.375</v>
+        <f>E120/(H120+J120)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
@@ -5837,159 +5840,159 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C121+D121</f>
+        <v>11</v>
       </c>
       <c r="F121">
-        <f t="shared" si="19"/>
-        <v>1.125</v>
+        <f>E121/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H121">
-        <f t="shared" si="18"/>
-        <v>1.3333333333333333</v>
+        <f>G121/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J121">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I121/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K121">
-        <f t="shared" si="6"/>
-        <v>3.375</v>
+        <f>E121/(H121+J121)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f>C122+D122</f>
+        <v>11</v>
       </c>
       <c r="F122">
-        <f t="shared" si="19"/>
-        <v>1.125</v>
+        <f>E122/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>G122/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J122">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I122/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K122">
-        <f t="shared" si="6"/>
-        <v>4.5</v>
+        <f>E122/(H122+J122)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="C123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123">
         <v>5</v>
       </c>
       <c r="E123">
         <f>C123+D123</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123">
-        <f t="shared" si="19"/>
-        <v>1.25</v>
+        <f>E123/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H123">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>G123/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J123">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I123/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K123">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>E123/(H123+J123)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>5</v>
       </c>
       <c r="E124">
-        <f t="shared" ref="E124:E137" si="20">C124+D124</f>
-        <v>10</v>
+        <f>C124+D124</f>
+        <v>11</v>
       </c>
       <c r="F124">
-        <f t="shared" si="19"/>
-        <v>1.25</v>
+        <f>E124/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>G124/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J124">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I124/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K124">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>E124/(H124+J124)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
@@ -5997,39 +6000,39 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D125">
         <v>5</v>
       </c>
       <c r="E125">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f>C125+D125</f>
+        <v>11</v>
       </c>
       <c r="F125">
-        <f t="shared" si="19"/>
-        <v>1.25</v>
+        <f>E125/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H125">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>G125/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J125">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I125/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K125">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>E125/(H125+J125)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
@@ -6037,39 +6040,39 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f>C126+D126</f>
+        <v>11</v>
       </c>
       <c r="F126">
-        <f t="shared" si="19"/>
-        <v>0.875</v>
+        <f>E126/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <f t="shared" si="18"/>
-        <v>1.3333333333333333</v>
+        <f>G126/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J126">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I126/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K126">
-        <f t="shared" si="6"/>
-        <v>2.625</v>
+        <f>E126/(H126+J126)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
@@ -6077,119 +6080,119 @@
         <v>116</v>
       </c>
       <c r="B127" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <f t="shared" si="20"/>
-        <v>8</v>
+        <f>C127+D127</f>
+        <v>11</v>
       </c>
       <c r="F127">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f>E127/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H127">
-        <f t="shared" si="18"/>
-        <v>1.3333333333333333</v>
+        <f>G127/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J127">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I127/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K127">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E127/(H127+J127)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f>C128+D128</f>
+        <v>11</v>
       </c>
       <c r="F128">
-        <f t="shared" si="19"/>
-        <v>0.875</v>
+        <f>E128/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H128">
-        <f t="shared" si="18"/>
-        <v>1.3333333333333333</v>
+        <f>G128/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J128">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I128/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K128">
-        <f t="shared" si="6"/>
-        <v>2.625</v>
+        <f>E128/(H128+J128)</f>
+        <v>6.6</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B129" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C129">
         <v>6</v>
       </c>
       <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <f>C129+D129</f>
+        <v>12</v>
+      </c>
+      <c r="F129">
+        <f>E129/E$173</f>
+        <v>1.5</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
+      <c r="H129">
+        <f>G129/G$173</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I129">
         <v>7</v>
       </c>
-      <c r="E129">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="19"/>
-        <v>1.625</v>
-      </c>
-      <c r="G129">
-        <v>6</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="I129">
-        <v>6</v>
-      </c>
       <c r="J129">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I129/I$173</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K129">
-        <f t="shared" si="6"/>
-        <v>3.25</v>
+        <f>E129/(H129+J129)</f>
+        <v>6.545454545454545</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
@@ -6197,119 +6200,119 @@
         <v>116</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f>C130+D130</f>
+        <v>13</v>
       </c>
       <c r="F130">
-        <f t="shared" si="19"/>
-        <v>0.875</v>
+        <f>E130/E$173</f>
+        <v>1.625</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H130">
-        <f t="shared" si="18"/>
-        <v>1.3333333333333333</v>
+        <f>G130/G$173</f>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J130">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I130/I$173</f>
+        <v>1</v>
       </c>
       <c r="K130">
-        <f t="shared" si="6"/>
-        <v>2.625</v>
+        <f>E130/(H130+J130)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <f t="shared" si="20"/>
-        <v>8</v>
+        <f>C131+D131</f>
+        <v>13</v>
       </c>
       <c r="F131">
         <f>E131/E$173</f>
+        <v>1.625</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131">
+        <f>G131/G$173</f>
         <v>1</v>
       </c>
-      <c r="G131">
-        <v>2</v>
-      </c>
-      <c r="H131">
-        <f t="shared" si="18"/>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="I131">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J131">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <f>I131/I$173</f>
+        <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>E131/(H131+J131)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <f t="shared" si="20"/>
-        <v>8</v>
+        <f>C132+D132</f>
+        <v>13</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F132:F141" si="21">E132/E$173</f>
+        <f>E132/E$173</f>
+        <v>1.625</v>
+      </c>
+      <c r="G132">
+        <v>6</v>
+      </c>
+      <c r="H132">
+        <f>G132/G$173</f>
         <v>1</v>
       </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132">
-        <f t="shared" si="18"/>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="I132">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J132">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <f>I132/I$173</f>
+        <v>1</v>
       </c>
       <c r="K132">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>E132/(H132+J132)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
@@ -6317,359 +6320,359 @@
         <v>116</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f>C133+D133</f>
+        <v>13</v>
       </c>
       <c r="F133">
-        <f t="shared" si="21"/>
-        <v>1.25</v>
+        <f>E133/E$173</f>
+        <v>1.625</v>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H133">
         <f>G133/G$173</f>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J133">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I133/I$173</f>
+        <v>1</v>
       </c>
       <c r="K133">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E133/(H133+J133)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E134">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f>C134+D134</f>
+        <v>12</v>
       </c>
       <c r="F134">
-        <f t="shared" si="21"/>
-        <v>0.75</v>
+        <f>E134/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H134">
-        <f t="shared" ref="H134:H144" si="22">G134/G$173</f>
-        <v>1</v>
+        <f>G134/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J134">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I134/I$173</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K134">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E134/(H134+J134)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B135" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f>C135+D135</f>
+        <v>4</v>
       </c>
       <c r="F135">
-        <f t="shared" si="21"/>
-        <v>1.25</v>
+        <f>E135/E$173</f>
+        <v>0.5</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f>G135/G$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J135">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I135/I$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K135">
-        <f t="shared" si="6"/>
-        <v>3.7499999999999996</v>
+        <f>E135/(H135+J135)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f>C136+D136</f>
+        <v>4</v>
       </c>
       <c r="F136">
-        <f t="shared" si="21"/>
-        <v>0.875</v>
+        <f>E136/E$173</f>
+        <v>0.5</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f>G136/G$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>I136/I$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K136">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
+        <f>E136/(H136+J136)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f>C137+D137</f>
+        <v>4</v>
       </c>
       <c r="F137">
-        <f t="shared" si="21"/>
-        <v>0.875</v>
+        <f>E137/E$173</f>
+        <v>0.5</v>
       </c>
       <c r="G137">
         <v>2</v>
       </c>
       <c r="H137">
-        <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
+        <f>G137/G$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <f>I137/I$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K137">
-        <f t="shared" si="6"/>
-        <v>5.25</v>
+        <f>E137/(H137+J137)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <f>C138+D138</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F138">
-        <f t="shared" si="21"/>
-        <v>1.25</v>
+        <f>E138/E$173</f>
+        <v>0.5</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <f t="shared" si="22"/>
+        <f>G138/G$173</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I138">
         <v>2</v>
       </c>
-      <c r="I138">
-        <v>6</v>
-      </c>
       <c r="J138">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I138/I$173</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K138">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f>E138/(H138+J138)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <f t="shared" ref="E139:E148" si="23">C139+D139</f>
-        <v>10</v>
+        <f>C139+D139</f>
+        <v>12</v>
       </c>
       <c r="F139">
-        <f t="shared" si="21"/>
-        <v>1.25</v>
+        <f>E139/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H139">
-        <f t="shared" si="22"/>
-        <v>1.6666666666666667</v>
+        <f>G139/G$173</f>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J139">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I139/I$173</f>
+        <v>1</v>
       </c>
       <c r="K139">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>E139/(H139+J139)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C140">
         <v>6</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <f t="shared" si="23"/>
-        <v>9</v>
+        <f>C140+D140</f>
+        <v>12</v>
       </c>
       <c r="F140">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
+        <f>E140/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H140">
-        <f t="shared" si="22"/>
-        <v>1.3333333333333333</v>
+        <f>G140/G$173</f>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J140">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I140/I$173</f>
+        <v>1</v>
       </c>
       <c r="K140">
-        <f t="shared" si="6"/>
-        <v>3.375</v>
+        <f>E140/(H140+J140)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="C141">
         <v>6</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="23"/>
-        <v>9</v>
+        <f>C141+D141</f>
+        <v>12</v>
       </c>
       <c r="F141">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
+        <f>E141/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H141">
-        <f t="shared" si="22"/>
-        <v>1.3333333333333333</v>
+        <f>G141/G$173</f>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J141">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I141/I$173</f>
+        <v>1</v>
       </c>
       <c r="K141">
-        <f t="shared" ref="K141:K173" si="24">E141/(H141+J141)</f>
-        <v>3.375</v>
+        <f>E141/(H141+J141)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -6677,16 +6680,16 @@
         <v>155</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <f t="shared" si="23"/>
+        <f>C142+D142</f>
         <v>8</v>
       </c>
       <c r="F142">
@@ -6694,22 +6697,22 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <f t="shared" si="22"/>
-        <v>1.6666666666666667</v>
+        <f>G142/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J142">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I142/I$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K142">
-        <f t="shared" si="24"/>
-        <v>2.4</v>
+        <f>E142/(H142+J142)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
@@ -6717,39 +6720,39 @@
         <v>155</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <f t="shared" si="23"/>
-        <v>9</v>
+        <f>C143+D143</f>
+        <v>10</v>
       </c>
       <c r="F143">
-        <f t="shared" ref="F143:F151" si="25">E143/E$173</f>
-        <v>1.125</v>
+        <f>E143/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H143">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f>G143/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J143">
         <f>I143/I$173</f>
-        <v>2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K143">
-        <f t="shared" si="24"/>
-        <v>2.25</v>
+        <f>E143/(H143+J143)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
@@ -6757,119 +6760,119 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <f t="shared" si="23"/>
-        <v>7</v>
+        <f>C144+D144</f>
+        <v>10</v>
       </c>
       <c r="F144">
-        <f t="shared" si="25"/>
-        <v>0.875</v>
+        <f>E144/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H144">
-        <f t="shared" si="22"/>
-        <v>1.3333333333333333</v>
+        <f>G144/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J144">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I144/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K144">
-        <f t="shared" si="24"/>
-        <v>2.1</v>
+        <f>E144/(H144+J144)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <f t="shared" si="23"/>
-        <v>7</v>
+        <f>C145+D145</f>
+        <v>10</v>
       </c>
       <c r="F145">
-        <f t="shared" si="25"/>
-        <v>0.875</v>
+        <f>E145/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H145">
         <f>G145/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J145">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I145/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K145">
-        <f t="shared" si="24"/>
-        <v>2.1</v>
+        <f>E145/(H145+J145)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C146">
         <v>6</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <f t="shared" si="23"/>
-        <v>9</v>
+        <f>C146+D146</f>
+        <v>10</v>
       </c>
       <c r="F146">
-        <f t="shared" si="25"/>
-        <v>1.125</v>
+        <f>E146/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G146">
         <v>5</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H163" si="26">G146/G$173</f>
-        <v>1.6666666666666667</v>
+        <f>G146/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I146">
         <v>5</v>
       </c>
       <c r="J146">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I146/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K146">
-        <f t="shared" si="24"/>
-        <v>2.6999999999999997</v>
+        <f>E146/(H146+J146)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
@@ -6877,119 +6880,119 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <f t="shared" si="23"/>
-        <v>7</v>
+        <f>C147+D147</f>
+        <v>11</v>
       </c>
       <c r="F147">
-        <f t="shared" si="25"/>
-        <v>0.875</v>
+        <f>E147/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G147">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H147">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f>G147/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I147">
         <v>6</v>
       </c>
       <c r="J147">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I147/I$173</f>
+        <v>1</v>
       </c>
       <c r="K147">
-        <f t="shared" si="24"/>
-        <v>1.75</v>
+        <f>E147/(H147+J147)</f>
+        <v>5.9999999999999991</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <f t="shared" si="23"/>
+        <f>C148+D148</f>
         <v>11</v>
       </c>
       <c r="F148">
-        <f t="shared" si="25"/>
+        <f>E148/E$173</f>
         <v>1.375</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H148">
-        <f t="shared" si="26"/>
-        <v>1.6666666666666667</v>
+        <f>G148/G$173</f>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J148">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I148/I$173</f>
+        <v>1</v>
       </c>
       <c r="K148">
-        <f t="shared" si="24"/>
-        <v>3.3</v>
+        <f>E148/(H148+J148)</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149">
         <v>5</v>
       </c>
       <c r="E149">
         <f>C149+D149</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149">
-        <f t="shared" si="25"/>
-        <v>1.25</v>
+        <f>E149/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H149">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
+        <f>G149/G$173</f>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>6</v>
       </c>
       <c r="J149">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I149/I$173</f>
+        <v>1</v>
       </c>
       <c r="K149">
-        <f t="shared" si="24"/>
-        <v>3.0000000000000004</v>
+        <f>E149/(H149+J149)</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
@@ -6997,39 +7000,39 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <f t="shared" ref="E150:E161" si="27">C150+D150</f>
+        <f>C150+D150</f>
         <v>10</v>
       </c>
       <c r="F150">
-        <f t="shared" si="25"/>
+        <f>E150/E$173</f>
         <v>1.25</v>
       </c>
       <c r="G150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H150">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
+        <f>G150/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I150">
         <v>6</v>
       </c>
       <c r="J150">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I150/I$173</f>
+        <v>1</v>
       </c>
       <c r="K150">
-        <f t="shared" si="24"/>
-        <v>3.0000000000000004</v>
+        <f>E150/(H150+J150)</f>
+        <v>5.4545454545454541</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
@@ -7037,39 +7040,39 @@
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C151">
         <v>6</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <f t="shared" si="27"/>
-        <v>11</v>
+        <f>C151+D151</f>
+        <v>9</v>
       </c>
       <c r="F151">
-        <f t="shared" si="25"/>
-        <v>1.375</v>
+        <f>E151/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H151">
-        <f t="shared" si="26"/>
-        <v>1.6666666666666667</v>
+        <f>G151/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J151">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I151/I$173</f>
+        <v>1</v>
       </c>
       <c r="K151">
-        <f t="shared" si="24"/>
-        <v>3.3</v>
+        <f>E151/(H151+J151)</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
@@ -7077,39 +7080,39 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f>C152+D152</f>
+        <v>9</v>
       </c>
       <c r="F152">
         <f>E152/E$173</f>
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="G152">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H152">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f>G152/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I152">
         <v>6</v>
       </c>
       <c r="J152">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I152/I$173</f>
+        <v>1</v>
       </c>
       <c r="K152">
-        <f t="shared" si="24"/>
-        <v>1.75</v>
+        <f>E152/(H152+J152)</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
@@ -7117,39 +7120,39 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>3</v>
       </c>
       <c r="E153">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f>C153+D153</f>
+        <v>9</v>
       </c>
       <c r="F153">
-        <f t="shared" ref="F153:F164" si="28">E153/E$173</f>
+        <f>E153/E$173</f>
+        <v>1.125</v>
+      </c>
+      <c r="G153">
+        <v>4</v>
+      </c>
+      <c r="H153">
+        <f>G153/G$173</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I153">
+        <v>6</v>
+      </c>
+      <c r="J153">
+        <f>I153/I$173</f>
         <v>1</v>
       </c>
-      <c r="G153">
-        <v>4</v>
-      </c>
-      <c r="H153">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="I153">
-        <v>4</v>
-      </c>
-      <c r="J153">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
-      </c>
       <c r="K153">
-        <f t="shared" si="24"/>
-        <v>3</v>
+        <f>E153/(H153+J153)</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
@@ -7157,39 +7160,39 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f>C154+D154</f>
+        <v>9</v>
       </c>
       <c r="F154">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f>E154/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G154">
         <v>4</v>
       </c>
       <c r="H154">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
+        <f>G154/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I154">
         <v>6</v>
       </c>
       <c r="J154">
         <f>I154/I$173</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <f t="shared" si="24"/>
-        <v>2.4000000000000004</v>
+        <f>E154/(H154+J154)</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
@@ -7197,39 +7200,39 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155">
         <v>3</v>
       </c>
       <c r="E155">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f>C155+D155</f>
+        <v>9</v>
       </c>
       <c r="F155">
-        <f t="shared" si="28"/>
+        <f>E155/E$173</f>
+        <v>1.125</v>
+      </c>
+      <c r="G155">
+        <v>4</v>
+      </c>
+      <c r="H155">
+        <f>G155/G$173</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I155">
+        <v>6</v>
+      </c>
+      <c r="J155">
+        <f>I155/I$173</f>
         <v>1</v>
       </c>
-      <c r="G155">
-        <v>4</v>
-      </c>
-      <c r="H155">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="I155">
-        <v>6</v>
-      </c>
-      <c r="J155">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
       <c r="K155">
-        <f t="shared" si="24"/>
-        <v>2.4000000000000004</v>
+        <f>E155/(H155+J155)</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
@@ -7237,39 +7240,39 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C156">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f>C156+D156</f>
+        <v>9</v>
       </c>
       <c r="F156">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f>E156/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G156">
         <v>5</v>
       </c>
       <c r="H156">
-        <f t="shared" si="26"/>
-        <v>1.6666666666666667</v>
+        <f>G156/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I156">
         <v>5</v>
       </c>
       <c r="J156">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I156/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K156">
-        <f t="shared" si="24"/>
-        <v>2.4</v>
+        <f>E156/(H156+J156)</f>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
@@ -7277,39 +7280,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157">
-        <f t="shared" si="27"/>
-        <v>6</v>
+        <f>C157+D157</f>
+        <v>9</v>
       </c>
       <c r="F157">
-        <f t="shared" si="28"/>
-        <v>0.75</v>
+        <f>E157/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H157">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
+        <f>G157/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J157">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
+        <f>I157/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K157">
-        <f t="shared" si="24"/>
-        <v>2.25</v>
+        <f>E157/(H157+J157)</f>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
@@ -7317,119 +7320,119 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f>C158+D158</f>
+        <v>9</v>
       </c>
       <c r="F158">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f>E158/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G158">
         <v>5</v>
       </c>
       <c r="H158">
-        <f t="shared" si="26"/>
-        <v>1.6666666666666667</v>
+        <f>G158/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I158">
         <v>5</v>
       </c>
       <c r="J158">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I158/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K158">
-        <f t="shared" si="24"/>
-        <v>2.4</v>
+        <f>E158/(H158+J158)</f>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B159" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C159">
         <v>6</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <f t="shared" si="27"/>
+        <f>C159+D159</f>
+        <v>12</v>
+      </c>
+      <c r="F159">
+        <f>E159/E$173</f>
+        <v>1.5</v>
+      </c>
+      <c r="G159">
         <v>7</v>
       </c>
-      <c r="F159">
-        <f t="shared" si="28"/>
-        <v>0.875</v>
-      </c>
-      <c r="G159">
-        <v>4</v>
-      </c>
       <c r="H159">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
+        <f>G159/G$173</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="I159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J159">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I159/I$173</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K159">
-        <f t="shared" si="24"/>
-        <v>2.1</v>
+        <f>E159/(H159+J159)</f>
+        <v>5.1428571428571423</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B160" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C160">
         <v>6</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <f t="shared" si="27"/>
-        <v>9</v>
+        <f>C160+D160</f>
+        <v>12</v>
       </c>
       <c r="F160">
-        <f t="shared" si="28"/>
-        <v>1.125</v>
+        <f>E160/E$173</f>
+        <v>1.5</v>
       </c>
       <c r="G160">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H160">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
+        <f>G160/G$173</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="I160">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J160">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>I160/I$173</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K160">
-        <f t="shared" si="24"/>
-        <v>2.7</v>
+        <f>E160/(H160+J160)</f>
+        <v>5.1428571428571423</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
@@ -7437,39 +7440,39 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <f t="shared" si="27"/>
-        <v>12</v>
+        <f>C161+D161</f>
+        <v>10</v>
       </c>
       <c r="F161">
-        <f t="shared" si="28"/>
-        <v>1.5</v>
+        <f>E161/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G161">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H161">
-        <f t="shared" si="26"/>
-        <v>1.6666666666666667</v>
+        <f>G161/G$173</f>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J161">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I161/I$173</f>
+        <v>1</v>
       </c>
       <c r="K161">
-        <f t="shared" si="24"/>
-        <v>3.5999999999999996</v>
+        <f>E161/(H161+J161)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
@@ -7477,39 +7480,39 @@
         <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <f>C162+D162</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162">
-        <f t="shared" si="28"/>
-        <v>1.125</v>
+        <f>E162/E$173</f>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H162">
-        <f t="shared" si="26"/>
-        <v>1.6666666666666667</v>
+        <f>G162/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J162">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
+        <f>I162/I$173</f>
+        <v>1</v>
       </c>
       <c r="K162">
-        <f t="shared" si="24"/>
-        <v>2.6999999999999997</v>
+        <f>E162/(H162+J162)</f>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
@@ -7517,39 +7520,39 @@
         <v>155</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C163">
         <v>6</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <f t="shared" ref="E163:E173" si="29">C163+D163</f>
-        <v>10</v>
+        <f>C163+D163</f>
+        <v>8</v>
       </c>
       <c r="F163">
-        <f t="shared" si="28"/>
-        <v>1.25</v>
+        <f>E163/E$173</f>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>4</v>
       </c>
       <c r="H163">
-        <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
+        <f>G163/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J163">
         <f>I163/I$173</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K163">
-        <f t="shared" si="24"/>
-        <v>3.75</v>
+        <f>E163/(H163+J163)</f>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
@@ -7557,39 +7560,39 @@
         <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164">
-        <f t="shared" si="29"/>
-        <v>7</v>
+        <f>C164+D164</f>
+        <v>8</v>
       </c>
       <c r="F164">
-        <f t="shared" si="28"/>
-        <v>0.875</v>
+        <f>E164/E$173</f>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H164">
         <f>G164/G$173</f>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I164">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J164">
-        <f t="shared" ref="J164:J173" si="30">I164/I$173</f>
-        <v>2</v>
+        <f>I164/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K164">
-        <f t="shared" si="24"/>
-        <v>2.1</v>
+        <f>E164/(H164+J164)</f>
+        <v>4.8</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
@@ -7597,39 +7600,39 @@
         <v>155</v>
       </c>
       <c r="B165" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165">
-        <f t="shared" si="29"/>
-        <v>7</v>
+        <f>C165+D165</f>
+        <v>8</v>
       </c>
       <c r="F165">
         <f>E165/E$173</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H165">
-        <f t="shared" ref="H165:H173" si="31">G165/G$173</f>
-        <v>1.3333333333333333</v>
+        <f>G165/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I165">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J165">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f>I165/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K165">
-        <f t="shared" si="24"/>
-        <v>2.1</v>
+        <f>E165/(H165+J165)</f>
+        <v>4.8</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
@@ -7637,39 +7640,39 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C166">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <f t="shared" si="29"/>
+        <f>C166+D166</f>
         <v>9</v>
       </c>
       <c r="F166">
-        <f t="shared" ref="F166:F173" si="32">E166/E$173</f>
+        <f>E166/E$173</f>
         <v>1.125</v>
       </c>
       <c r="G166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H166">
-        <f t="shared" si="31"/>
-        <v>1.6666666666666667</v>
+        <f>G166/G$173</f>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J166">
-        <f t="shared" si="30"/>
-        <v>1.6666666666666667</v>
+        <f>I166/I$173</f>
+        <v>1</v>
       </c>
       <c r="K166">
-        <f t="shared" si="24"/>
-        <v>2.6999999999999997</v>
+        <f>E166/(H166+J166)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
@@ -7677,47 +7680,47 @@
         <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167">
-        <f t="shared" si="29"/>
-        <v>11</v>
+        <f>C167+D167</f>
+        <v>9</v>
       </c>
       <c r="F167">
-        <f t="shared" si="32"/>
-        <v>1.375</v>
+        <f>E167/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G167">
         <v>6</v>
       </c>
       <c r="H167">
-        <f t="shared" si="31"/>
-        <v>2</v>
+        <f>G167/G$173</f>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>6</v>
       </c>
       <c r="J167">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f>I167/I$173</f>
+        <v>1</v>
       </c>
       <c r="K167">
-        <f t="shared" si="24"/>
-        <v>2.75</v>
+        <f>E167/(H167+J167)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B168" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -7726,38 +7729,38 @@
         <v>3</v>
       </c>
       <c r="E168">
-        <f t="shared" si="29"/>
+        <f>C168+D168</f>
         <v>9</v>
       </c>
       <c r="F168">
-        <f t="shared" si="32"/>
+        <f>E168/E$173</f>
         <v>1.125</v>
       </c>
       <c r="G168">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H168">
-        <f t="shared" si="31"/>
-        <v>1.3333333333333333</v>
+        <f>G168/G$173</f>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J168">
-        <f t="shared" si="30"/>
-        <v>1.3333333333333333</v>
+        <f>I168/I$173</f>
+        <v>1</v>
       </c>
       <c r="K168">
-        <f t="shared" si="24"/>
-        <v>3.375</v>
+        <f>E168/(H168+J168)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -7766,30 +7769,30 @@
         <v>3</v>
       </c>
       <c r="E169">
-        <f t="shared" si="29"/>
+        <f>C169+D169</f>
         <v>9</v>
       </c>
       <c r="F169">
-        <f t="shared" si="32"/>
+        <f>E169/E$173</f>
         <v>1.125</v>
       </c>
       <c r="G169">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H169">
-        <f t="shared" si="31"/>
-        <v>1.3333333333333333</v>
+        <f>G169/G$173</f>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J169">
-        <f t="shared" si="30"/>
-        <v>1.3333333333333333</v>
+        <f>I169/I$173</f>
+        <v>1</v>
       </c>
       <c r="K169">
-        <f t="shared" si="24"/>
-        <v>3.375</v>
+        <f>E169/(H169+J169)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
@@ -7797,39 +7800,39 @@
         <v>155</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C170">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <f t="shared" si="29"/>
-        <v>11</v>
+        <f>C170+D170</f>
+        <v>9</v>
       </c>
       <c r="F170">
-        <f t="shared" si="32"/>
-        <v>1.375</v>
+        <f>E170/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G170">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H170">
-        <f t="shared" si="31"/>
-        <v>1.6666666666666667</v>
+        <f>G170/G$173</f>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J170">
-        <f t="shared" si="30"/>
-        <v>1.6666666666666667</v>
+        <f>I170/I$173</f>
+        <v>1</v>
       </c>
       <c r="K170">
-        <f t="shared" si="24"/>
-        <v>3.3</v>
+        <f>E170/(H170+J170)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
@@ -7837,39 +7840,39 @@
         <v>155</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <f>C171+D171</f>
         <v>7</v>
       </c>
-      <c r="D171">
-        <v>4</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="29"/>
-        <v>11</v>
-      </c>
       <c r="F171">
-        <f t="shared" si="32"/>
-        <v>1.375</v>
+        <f>E171/E$173</f>
+        <v>0.875</v>
       </c>
       <c r="G171">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H171">
-        <f t="shared" si="31"/>
-        <v>1.6666666666666667</v>
+        <f>G171/G$173</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I171">
         <v>6</v>
       </c>
       <c r="J171">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f>I171/I$173</f>
+        <v>1</v>
       </c>
       <c r="K171">
-        <f t="shared" si="24"/>
-        <v>2.9999999999999996</v>
+        <f>E171/(H171+J171)</f>
+        <v>4.2</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.4">
@@ -7877,39 +7880,39 @@
         <v>155</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C172">
         <v>6</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <f t="shared" si="29"/>
-        <v>11</v>
+        <f>C172+D172</f>
+        <v>7</v>
       </c>
       <c r="F172">
-        <f t="shared" si="32"/>
-        <v>1.375</v>
+        <f>E172/E$173</f>
+        <v>0.875</v>
       </c>
       <c r="G172">
         <v>5</v>
       </c>
       <c r="H172">
-        <f t="shared" si="31"/>
-        <v>1.6666666666666667</v>
+        <f>G172/G$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I172">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J172">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f>I172/I$173</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K172">
-        <f t="shared" si="24"/>
-        <v>2.9999999999999996</v>
+        <f>E172/(H172+J172)</f>
+        <v>4.2</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
@@ -7917,38 +7920,38 @@
         <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <f t="shared" si="29"/>
+        <f>C173+D173</f>
         <v>8</v>
       </c>
       <c r="F173">
-        <f t="shared" si="32"/>
+        <f>E173/E$173</f>
         <v>1</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H173">
-        <f t="shared" si="31"/>
+        <f>G173/G$173</f>
         <v>1</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J173">
-        <f t="shared" si="30"/>
+        <f>I173/I$173</f>
         <v>1</v>
       </c>
       <c r="K173">
-        <f t="shared" si="24"/>
+        <f>E173/(H173+J173)</f>
         <v>4</v>
       </c>
     </row>
@@ -7958,15 +7961,15 @@
       </c>
       <c r="C174">
         <f>SUM(C2:C173)</f>
-        <v>784</v>
+        <v>1019</v>
       </c>
       <c r="D174">
         <f>SUM(D2:D173)</f>
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="E174">
         <f>C174+D174</f>
-        <v>1589</v>
+        <v>1813</v>
       </c>
       <c r="F174">
         <v>100</v>
@@ -7976,13 +7979,18 @@
       </c>
       <c r="I174">
         <f>SUM(I2:I173)</f>
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="J174">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K174" xr:uid="{F2F043FD-DD07-472D-8A07-27FD40F21872}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K174">
+      <sortCondition descending="1" ref="K1:K174"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/受控文件/需求优先级/SRA2021-G04需求优先级0.1.0.xlsx
+++ b/受控文件/需求优先级/SRA2021-G04需求优先级0.1.0.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\仓库\受控文件\需求优先级\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4276FF-50A5-49BF-A7B0-9FF4CD155AD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9176F2F7-42CA-4544-A107-4CD8B93F7B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$174</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1030,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1077,162 +1074,162 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <f>C2+D2</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f>E2/E$173</f>
-        <v>2.125</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <f>G2/G$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <f>I2/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K2">
         <f>E2/(H2+J2)</f>
-        <v>17</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <f>C3+D3</f>
-        <v>16</v>
+        <f t="shared" ref="E3:E71" si="0">C3+D3</f>
+        <v>9</v>
       </c>
       <c r="F3">
         <f>E3/E$173</f>
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <f>G3/G$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <f>I3/I$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <f>E3/(H3+J3)</f>
-        <v>16</v>
+        <f t="shared" ref="K3:K71" si="1">E3/(H3+J3)</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <f>C4+D4</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F4">
         <f>E4/E$173</f>
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <f>G4/G$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <f>I4/I$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <f>E4/(H4+J4)</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <f>C5+D5</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F5">
         <f>E5/E$173</f>
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f>G5/G$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <f>I5/I$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <f>E5/(H5+J5)</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1240,79 +1237,79 @@
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <f>C6+D6</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="F6">
         <f>E6/E$173</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <f>G6/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <f>I6/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="K6">
-        <f>E6/(H6+J6)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <f>C7+D7</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="F7">
         <f>E7/E$173</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>G7/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <f>I7/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="K7">
-        <f>E7/(H7+J7)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>3.8181818181818179</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1320,39 +1317,39 @@
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <f>C8+D8</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F8">
         <f>E8/E$173</f>
-        <v>1.25</v>
+        <v>1.875</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <f>G8/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <f>I8/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <f>E8/(H8+J8)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1360,79 +1357,79 @@
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <f>C9+D9</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F9">
         <f>E9/E$173</f>
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <f>G9/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <f>I9/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K9">
-        <f>E9/(H9+J9)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>3.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <f>C10+D10</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F10">
         <f>E10/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
         <f>G10/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
         <f>I10/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K10">
-        <f>E10/(H10+J10)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>8.25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1440,39 +1437,39 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <f>C11+D11</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F11">
         <f>E11/E$173</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
         <f>G11/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
         <f>I11/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K11">
-        <f>E11/(H11+J11)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1480,199 +1477,199 @@
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <f>C12+D12</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F12">
         <f>E12/E$173</f>
-        <v>1.5</v>
+        <v>0.875</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <f>G12/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <f>I12/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K12">
-        <f>E12/(H12+J12)</f>
-        <v>14.400000000000002</v>
+        <f t="shared" si="1"/>
+        <v>2.6249999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <f>C13+D13</f>
-        <v>14</v>
       </c>
       <c r="F13">
         <f>E13/E$173</f>
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <f>G13/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <f>I13/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K13">
-        <f>E13/(H13+J13)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <f>C14+D14</f>
-        <v>14</v>
       </c>
       <c r="F14">
         <f>E14/E$173</f>
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <f>G14/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <f>I14/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K14">
-        <f>E14/(H14+J14)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <f>C15+D15</f>
-        <v>14</v>
       </c>
       <c r="F15">
         <f>E15/E$173</f>
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
         <f>G15/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <f>I15/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K15">
-        <f>E15/(H15+J15)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>2.6249999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <f>C16+D16</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F16">
         <f>E16/E$173</f>
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
         <f>G16/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <f>I16/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <f>E16/(H16+J16)</f>
-        <v>13.5</v>
+        <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1683,36 +1680,36 @@
         <v>156</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17">
-        <f>C17+D17</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F17">
         <f>E17/E$173</f>
-        <v>1.375</v>
+        <v>0.875</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
         <f>G17/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17">
         <f>I17/I$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <f>E17/(H17+J17)</f>
-        <v>13.200000000000001</v>
+        <f t="shared" si="1"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1723,84 +1720,84 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
-        <f>C18+D18</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F18">
         <f>E18/E$173</f>
-        <v>1.375</v>
+        <v>0.875</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
         <f>G18/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
         <f>I18/I$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f>E18/(H18+J18)</f>
-        <v>13.200000000000001</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <f>C19+D19</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F19">
         <f>E19/E$173</f>
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <f>G19/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <f>I19/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K19">
-        <f>E19/(H19+J19)</f>
-        <v>13.200000000000001</v>
+        <f t="shared" si="1"/>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1809,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <f>C20+D20</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F20">
@@ -1817,62 +1814,62 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <f>G20/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <f>I20/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <f>E20/(H20+J20)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21">
         <f>C21+D21</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <f>E21/E$173</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <f>G21/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <f>I21/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K21">
-        <f>E21/(H21+J21)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1880,39 +1877,39 @@
         <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <f>C22+D22</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F22">
         <f>E22/E$173</f>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22">
         <f>G22/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
         <f>I22/I$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <f>E22/(H22+J22)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1920,79 +1917,79 @@
         <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <f>C23+D23</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F23">
         <f>E23/E$173</f>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
         <f>G23/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
         <f>I23/I$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <f>E23/(H23+J23)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <f>C24+D24</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F24">
         <f>E24/E$173</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <f>G24/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <f>I24/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K24">
-        <f>E24/(H24+J24)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -2000,119 +1997,119 @@
         <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <f>C25+D25</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F25">
         <f>E25/E$173</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <f>G25/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <f>I25/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K25">
-        <f>E25/(H25+J25)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <f>C26+D26</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F26">
         <f>E26/E$173</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <f>G26/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <f>I26/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K26">
-        <f>E26/(H26+J26)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>6</v>
       </c>
       <c r="E27">
-        <f>C27+D27</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F27">
         <f>E27/E$173</f>
-        <v>1.5</v>
+        <v>0.875</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
         <f>G27/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <f>I27/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K27">
-        <f>E27/(H27+J27)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>2.6249999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -2120,79 +2117,79 @@
         <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <f>C28+D28</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F28">
         <f>E28/E$173</f>
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
         <f>G28/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <f>I28/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K28">
-        <f>E28/(H28+J28)</f>
-        <v>11.249999999999998</v>
+        <f t="shared" si="1"/>
+        <v>3.4285714285714288</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <f>C29+D29</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F29">
         <f>E29/E$173</f>
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
         <f>G29/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <f>I29/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K29">
-        <f>E29/(H29+J29)</f>
-        <v>11.249999999999998</v>
+        <f t="shared" si="1"/>
+        <v>3.4285714285714288</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -2200,39 +2197,39 @@
         <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <f>C30+D30</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F30">
         <f>E30/E$173</f>
-        <v>1.375</v>
+        <v>0.875</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
         <f>G30/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <f>I30/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K30">
-        <f>E30/(H30+J30)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -2240,16 +2237,16 @@
         <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <f>C31+D31</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F31">
@@ -2257,22 +2254,22 @@
         <v>1.375</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H31">
         <f>G31/G$173</f>
-        <v>0.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J31">
         <f>I31/I$173</f>
-        <v>0.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="K31">
-        <f>E31/(H31+J31)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -2280,39 +2277,39 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32">
-        <f>C32+D32</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F32">
         <f>E32/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <f>G32/G$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J32">
         <f>I32/I$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <f>E32/(H32+J32)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -2320,87 +2317,87 @@
         <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33">
-        <f>C33+D33</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F33">
         <f>E33/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <f>G33/G$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <f>I33/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K33">
-        <f>E33/(H33+J33)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <f>C34+D34</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F34">
         <f>E34/E$173</f>
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <f>G34/G$173</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <f>I34/I$173</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K34">
-        <f>E34/(H34+J34)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>6.75</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2417,150 +2414,150 @@
         <v>1.375</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <f>G35/G$173</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <f>I35/I$173</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K35">
-        <f>E35/(H35+J35)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>8.25</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <f>C36+D36</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F36">
         <f>E36/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
         <f>G36/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36">
         <f>I36/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K36">
-        <f>E36/(H36+J36)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>4.2857142857142865</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <f>C37+D37</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F37">
         <f>E37/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
         <f>G37/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <f>I37/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K37">
-        <f>E37/(H37+J37)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>4.2857142857142865</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <f>C38+D38</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F38">
         <f>E38/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <f>G38/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38">
         <f>I38/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K38">
-        <f>E38/(H38+J38)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -2569,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <f>C39+D39</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F39">
@@ -2577,102 +2574,102 @@
         <v>1.375</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <f>G39/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39">
         <f>I39/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K39">
-        <f>E39/(H39+J39)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>4.125</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <f>C40+D40</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F40">
         <f>E40/E$173</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
         <f>G40/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40">
         <f>I40/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K40">
-        <f>E40/(H40+J40)</f>
-        <v>10.285714285714286</v>
+        <f t="shared" si="1"/>
+        <v>2.2499999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <f>C41+D41</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F41">
         <f>E41/E$173</f>
-        <v>1.5</v>
+        <v>0.875</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41">
         <f>G41/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <f>I41/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K41">
-        <f>E41/(H41+J41)</f>
-        <v>10.285714285714286</v>
+        <f t="shared" si="1"/>
+        <v>2.6249999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2680,167 +2677,167 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
       <c r="E42">
-        <f>C42+D42</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F42">
         <f>E42/E$173</f>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
         <f>G42/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42">
         <f>I42/I$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K42">
-        <f>E42/(H42+J42)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>2.2499999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <f>C43+D43</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F43">
         <f>E43/E$173</f>
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43">
         <f>G43/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43">
         <f>I43/I$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <f>E43/(H43+J43)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <f>C44+D44</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F44">
         <f>E44/E$173</f>
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <f>G44/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <f>I44/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="K44">
-        <f>E44/(H44+J44)</f>
-        <v>9.75</v>
+        <f t="shared" si="1"/>
+        <v>2.5714285714285712</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45">
-        <f>C45+D45</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F45">
         <f>E45/E$173</f>
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <f>G45/G$173</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <f>I45/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <f>E45/(H45+J45)</f>
-        <v>9.4285714285714306</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -2849,150 +2846,150 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <f>C46+D46</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F46">
-        <f>E46/E$173</f>
+        <f t="shared" ref="F46:F49" si="2">E46/E$173</f>
         <v>1.375</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <f>G46/G$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I46">
         <v>4</v>
       </c>
       <c r="J46">
         <f>I46/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K46">
-        <f>E46/(H46+J46)</f>
-        <v>9.4285714285714306</v>
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <f>C47+D47</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F47">
-        <f>E47/E$173</f>
-        <v>0.75</v>
+        <f t="shared" si="2"/>
+        <v>1.125</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <f>G47/G$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <f>I47/I$173</f>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K47">
-        <f>E47/(H47+J47)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <f>C48+D48</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F48">
-        <f>E48/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.125</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <f>G48/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I48">
         <v>4</v>
       </c>
       <c r="J48">
         <f>I48/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K48">
-        <f>E48/(H48+J48)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <f>C49+D49</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F49">
-        <f>E49/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
       <c r="H49">
         <f>G49/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <f>I49/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <f>E49/(H49+J49)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3.4285714285714288</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -3000,119 +2997,119 @@
         <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50">
-        <f>C50+D50</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F50">
         <f>E50/E$173</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H50">
         <f>G50/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J50">
         <f>I50/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="K50">
-        <f>E50/(H50+J50)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>6</v>
       </c>
       <c r="E51">
-        <f>C51+D51</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F51">
         <f>E51/E$173</f>
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <f>G51/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <f>I51/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K51">
-        <f>E51/(H51+J51)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>6.75</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <f>C52+D52</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <f>E52/E$173</f>
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="G52">
         <v>4</v>
       </c>
       <c r="H52">
         <f>G52/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I52">
         <v>4</v>
       </c>
       <c r="J52">
         <f>I52/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K52">
-        <f>E52/(H52+J52)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -3120,39 +3117,39 @@
         <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <f>C53+D53</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F53">
         <f>E53/E$173</f>
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53">
         <f>G53/G$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
       <c r="J53">
         <f>I53/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K53">
-        <f>E53/(H53+J53)</f>
-        <v>8.9999999999999982</v>
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -3160,39 +3157,39 @@
         <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <f>C54+D54</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F54">
         <f>E54/E$173</f>
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <f>G54/G$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I54">
         <v>5</v>
       </c>
       <c r="J54">
         <f>I54/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K54">
-        <f>E54/(H54+J54)</f>
-        <v>8.9999999999999982</v>
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -3200,39 +3197,39 @@
         <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <f>C55+D55</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F55">
         <f>E55/E$173</f>
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55">
         <f>G55/G$173</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I55">
         <v>5</v>
       </c>
       <c r="J55">
         <f>I55/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K55">
-        <f>E55/(H55+J55)</f>
-        <v>8.9999999999999982</v>
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -3240,39 +3237,39 @@
         <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <f>C56+D56</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F56">
         <f>E56/E$173</f>
-        <v>1.625</v>
+        <v>1.125</v>
       </c>
       <c r="G56">
         <v>4</v>
       </c>
       <c r="H56">
         <f>G56/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56">
         <f>I56/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K56">
-        <f>E56/(H56+J56)</f>
-        <v>8.6666666666666661</v>
+        <f t="shared" si="1"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -3280,39 +3277,39 @@
         <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <f>C57+D57</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F57">
         <f>E57/E$173</f>
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57">
         <f>G57/G$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I57">
         <v>4</v>
       </c>
       <c r="J57">
         <f>I57/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K57">
-        <f>E57/(H57+J57)</f>
-        <v>8.571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -3320,96 +3317,96 @@
         <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <f>C58+D58</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F58">
         <f>E58/E$173</f>
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58">
         <f>G58/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <f>I58/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <f>E58/(H58+J58)</f>
-        <v>8.571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <f>C59+D59</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F59">
         <f>E59/E$173</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="G59">
         <v>3</v>
       </c>
       <c r="H59">
         <f>G59/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <f>I59/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <f>E59/(H59+J59)</f>
-        <v>8.571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <f>C60+D60</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F60">
@@ -3421,18 +3418,18 @@
       </c>
       <c r="H60">
         <f>G60/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <f>I60/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <f>E60/(H60+J60)</f>
-        <v>8.571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -3440,16 +3437,16 @@
         <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <f>C61+D61</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F61">
@@ -3461,35 +3458,35 @@
       </c>
       <c r="H61">
         <f>G61/G$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <f>I61/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <f>E61/(H61+J61)</f>
-        <v>8.571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <f>C62+D62</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F62">
@@ -3497,62 +3494,62 @@
         <v>1.25</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <f>G62/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>3</v>
       </c>
       <c r="J62">
         <f>I62/I$173</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <f>E62/(H62+J62)</f>
-        <v>8.571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <f>C63+D63</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F63">
         <f>E63/E$173</f>
-        <v>1.25</v>
+        <v>0.875</v>
       </c>
       <c r="G63">
         <v>4</v>
       </c>
       <c r="H63">
         <f>G63/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <f>I63/I$173</f>
-        <v>0.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K63">
-        <f>E63/(H63+J63)</f>
-        <v>8.571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3560,79 +3557,79 @@
         <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <f>C64+D64</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F64">
         <f>E64/E$173</f>
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>4</v>
       </c>
       <c r="H64">
         <f>G64/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I64">
         <v>4</v>
       </c>
       <c r="J64">
         <f>I64/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K64">
-        <f>E64/(H64+J64)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <f>C65+D65</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F65">
         <f>E65/E$173</f>
-        <v>1.375</v>
+        <v>0.875</v>
       </c>
       <c r="G65">
         <v>4</v>
       </c>
       <c r="H65">
         <f>G65/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I65">
         <v>4</v>
       </c>
       <c r="J65">
         <f>I65/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K65">
-        <f>E65/(H65+J65)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -3640,79 +3637,79 @@
         <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C66">
         <v>6</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <f>C66+D66</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F66">
         <f>E66/E$173</f>
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H66">
         <f>G66/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J66">
         <f>I66/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <f>E66/(H66+J66)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>3.25</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <f>C67+D67</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <f>E67/E$173</f>
-        <v>1.375</v>
+        <v>0.875</v>
       </c>
       <c r="G67">
         <v>4</v>
       </c>
       <c r="H67">
         <f>G67/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I67">
         <v>4</v>
       </c>
       <c r="J67">
         <f>I67/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K67">
-        <f>E67/(H67+J67)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
@@ -3720,39 +3717,39 @@
         <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
       <c r="E68">
-        <f>C68+D68</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F68">
         <f>E68/E$173</f>
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <f>G68/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68">
         <f>I68/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K68">
-        <f>E68/(H68+J68)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -3760,239 +3757,239 @@
         <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>5</v>
       </c>
       <c r="E69">
-        <f>C69+D69</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F69">
         <f>E69/E$173</f>
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <f>G69/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <f>I69/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K69">
-        <f>E69/(H69+J69)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <f>C70+D70</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F70">
         <f>E70/E$173</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H70">
         <f>G70/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J70">
         <f>I70/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K70">
-        <f>E70/(H70+J70)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <f>C71+D71</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F71">
         <f>E71/E$173</f>
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <f>G71/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71">
         <f>I71/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <f>E71/(H71+J71)</f>
-        <v>8.25</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <f>C72+D72</f>
-        <v>11</v>
+        <f t="shared" ref="E72:E78" si="3">C72+D72</f>
+        <v>10</v>
       </c>
       <c r="F72">
-        <f>E72/E$173</f>
-        <v>1.375</v>
+        <f t="shared" ref="F72:F79" si="4">E72/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <f>G72/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J72">
-        <f>I72/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="J72:J74" si="5">I72/I$173</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K72">
-        <f>E72/(H72+J72)</f>
-        <v>8.25</v>
+        <f t="shared" ref="K72:K140" si="6">E72/(H72+J72)</f>
+        <v>3.7499999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <f>C73+D73</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="F73">
-        <f>E73/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="4"/>
+        <v>1.75</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73">
-        <f>G73/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="H73:H95" si="7">G73/G$173</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J73">
-        <f>I73/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K73">
-        <f>E73/(H73+J73)</f>
-        <v>8.25</v>
+        <f t="shared" si="6"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <f>C74+D74</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="F74">
-        <f>E74/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="4"/>
+        <v>1.75</v>
       </c>
       <c r="G74">
         <v>4</v>
       </c>
       <c r="H74">
-        <f>G74/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I74">
         <v>4</v>
       </c>
       <c r="J74">
-        <f>I74/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K74">
-        <f>E74/(H74+J74)</f>
-        <v>8.25</v>
+        <f t="shared" si="6"/>
+        <v>5.25</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -4000,39 +3997,39 @@
         <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <f>C75+D75</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="F75">
-        <f>E75/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H75">
-        <f>G75/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J75">
         <f>I75/I$173</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <f>E75/(H75+J75)</f>
-        <v>8.25</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
@@ -4040,39 +4037,39 @@
         <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76">
-        <f>C76+D76</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="F76">
-        <f>E76/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="4"/>
+        <v>1.75</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <f>G76/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I76">
         <v>5</v>
       </c>
       <c r="J76">
-        <f>I76/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="J76:J85" si="8">I76/I$173</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K76">
-        <f>E76/(H76+J76)</f>
-        <v>8.2499999999999982</v>
+        <f t="shared" si="6"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
@@ -4080,7 +4077,7 @@
         <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -4089,70 +4086,70 @@
         <v>5</v>
       </c>
       <c r="E77">
-        <f>C77+D77</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F77">
-        <f>E77/E$173</f>
+        <f t="shared" si="4"/>
         <v>1.375</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <f>G77/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J77">
-        <f>I77/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K77">
-        <f>E77/(H77+J77)</f>
-        <v>8.2499999999999982</v>
+        <f t="shared" si="6"/>
+        <v>8.25</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78">
-        <f>C78+D78</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="F78">
-        <f>E78/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="4"/>
+        <v>1.625</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <f>G78/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <f>I78/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K78">
-        <f>E78/(H78+J78)</f>
-        <v>8.2499999999999982</v>
+        <f t="shared" si="6"/>
+        <v>9.75</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -4160,39 +4157,39 @@
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <f>C79+D79</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <f>E79/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>3</v>
       </c>
       <c r="H79">
-        <f>G79/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <f>I79/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K79">
-        <f>E79/(H79+J79)</f>
-        <v>8.2499999999999982</v>
+        <f t="shared" si="6"/>
+        <v>3.4285714285714288</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -4200,119 +4197,119 @@
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <f>C80+D80</f>
-        <v>5</v>
+        <f t="shared" ref="E80:E90" si="9">C80+D80</f>
+        <v>8</v>
       </c>
       <c r="F80">
         <f>E80/E$173</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H80">
-        <f>G80/G$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <f>I80/I$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K80">
-        <f>E80/(H80+J80)</f>
-        <v>7.5</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E81">
-        <f>C81+D81</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="F81">
-        <f>E81/E$173</f>
-        <v>1.25</v>
+        <f t="shared" ref="F81:F94" si="10">E81/E$173</f>
+        <v>0.875</v>
       </c>
       <c r="G81">
         <v>4</v>
       </c>
       <c r="H81">
-        <f>G81/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I81">
         <v>4</v>
       </c>
       <c r="J81">
-        <f>I81/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K81">
-        <f>E81/(H81+J81)</f>
-        <v>7.5</v>
+        <f t="shared" si="6"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E82">
-        <f>C82+D82</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="F82">
-        <f>E82/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="10"/>
+        <v>0.875</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <f>G82/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <f>I82/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="K82">
-        <f>E82/(H82+J82)</f>
-        <v>7.5</v>
+        <f t="shared" si="6"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -4320,39 +4317,39 @@
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <f>C83+D83</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="F83">
-        <f>E83/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="10"/>
+        <v>0.875</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <f>G83/G$173</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J83">
-        <f>I83/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="K83">
-        <f>E83/(H83+J83)</f>
-        <v>7.5</v>
+        <f t="shared" si="6"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
@@ -4360,119 +4357,119 @@
         <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <f>C84+D84</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="F84">
-        <f>E84/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H84">
-        <f>G84/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J84">
-        <f>I84/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="K84">
-        <f>E84/(H84+J84)</f>
-        <v>7.4999999999999991</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85">
-        <f>C85+D85</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="F85">
-        <f>E85/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="10"/>
+        <v>1.125</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H85">
-        <f>G85/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I85">
         <v>5</v>
       </c>
       <c r="J85">
-        <f>I85/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K85">
-        <f>E85/(H85+J85)</f>
-        <v>7.4999999999999991</v>
+        <f t="shared" si="6"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <f>C86+D86</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F86">
-        <f>E86/E$173</f>
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
       <c r="H86">
-        <f>G86/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86">
         <f>I86/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <f>E86/(H86+J86)</f>
-        <v>7.4999999999999991</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -4480,39 +4477,39 @@
         <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <f>C87+D87</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F87">
-        <f>E87/E$173</f>
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
       <c r="H87">
-        <f>G87/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <f>I87/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="J87:J96" si="11">I87/I$173</f>
+        <v>1</v>
       </c>
       <c r="K87">
-        <f>E87/(H87+J87)</f>
-        <v>7.4999999999999991</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
@@ -4520,79 +4517,79 @@
         <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <f>C88+D88</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="F88">
-        <f>E88/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88">
-        <f>G88/G$173</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J88">
-        <f>I88/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K88">
-        <f>E88/(H88+J88)</f>
-        <v>7.4999999999999991</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
       <c r="E89">
-        <f>C89+D89</f>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="F89">
-        <f>E89/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <f>G89/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89">
-        <f>I89/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K89">
-        <f>E89/(H89+J89)</f>
-        <v>7.333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
@@ -4600,79 +4597,79 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
       <c r="E90">
-        <f>C90+D90</f>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="F90">
-        <f>E90/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <f>G90/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I90">
         <v>4</v>
       </c>
       <c r="J90">
-        <f>I90/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K90">
-        <f>E90/(H90+J90)</f>
-        <v>7.333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E91">
         <f>C91+D91</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F91">
-        <f>E91/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="10"/>
+        <v>0.875</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <f>G91/G$173</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <f>I91/I$173</f>
-        <v>0.5</v>
+        <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K91">
-        <f>E91/(H91+J91)</f>
-        <v>7.333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
@@ -4680,39 +4677,39 @@
         <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92">
         <v>5</v>
       </c>
       <c r="E92">
-        <f>C92+D92</f>
-        <v>11</v>
+        <f t="shared" ref="E92:E102" si="12">C92+D92</f>
+        <v>8</v>
       </c>
       <c r="F92">
-        <f>E92/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <f>G92/G$173</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J92">
-        <f>I92/I$173</f>
-        <v>0.5</v>
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K92">
-        <f>E92/(H92+J92)</f>
-        <v>7.333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>2.9999999999999996</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -4720,39 +4717,39 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <f>C93+D93</f>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="F93">
-        <f>E93/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <f>G93/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>5</v>
       </c>
       <c r="J93">
-        <f>I93/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K93">
-        <f>E93/(H93+J93)</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="6"/>
+        <v>2.9999999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -4760,119 +4757,119 @@
         <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <f>C94+D94</f>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="F94">
-        <f>E94/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="10"/>
+        <v>0.875</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <f>G94/G$173</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>5</v>
       </c>
       <c r="J94">
-        <f>I94/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K94">
-        <f>E94/(H94+J94)</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="6"/>
+        <v>2.6249999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <f>C95+D95</f>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="F95">
         <f>E95/E$173</f>
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H95">
-        <f>G95/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="7"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I95">
         <v>5</v>
       </c>
       <c r="J95">
-        <f>I95/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K95">
-        <f>E95/(H95+J95)</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="6"/>
+        <v>2.75</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <f>C96+D96</f>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="F96">
-        <f>E96/E$173</f>
-        <v>1.5</v>
+        <f t="shared" ref="F96:F118" si="13">E96/E$173</f>
+        <v>1.25</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H96">
         <f>G96/G$173</f>
-        <v>0.83333333333333337</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J96">
-        <f>I96/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="K96">
-        <f>E96/(H96+J96)</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="6"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
@@ -4880,78 +4877,78 @@
         <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <f>C97+D97</f>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="F97">
-        <f>E97/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="13"/>
+        <v>1.25</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
       <c r="H97">
-        <f>G97/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="H97:H114" si="14">G97/G$173</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I97">
         <v>5</v>
       </c>
       <c r="J97">
         <f>I97/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K97">
-        <f>E97/(H97+J97)</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <f>C98+D98</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F98">
-        <f>E98/E$173</f>
+        <f t="shared" si="13"/>
         <v>1.125</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <f>G98/G$173</f>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <f>I98/I$173</f>
+        <f t="shared" ref="J98:J162" si="15">I98/I$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K98">
-        <f>E98/(H98+J98)</f>
+        <f t="shared" si="6"/>
         <v>6.75</v>
       </c>
     </row>
@@ -4960,239 +4957,239 @@
         <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <f>C99+D99</f>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="F99">
-        <f>E99/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>1.375</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <f>G99/G$173</f>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <f>I99/I$173</f>
+        <f t="shared" si="15"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K99">
-        <f>E99/(H99+J99)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>8.25</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <f>C100+D100</f>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="F100">
-        <f>E100/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>1.25</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <f>G100/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>4</v>
       </c>
       <c r="J100">
-        <f>I100/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K100">
-        <f>E100/(H100+J100)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>4.2857142857142865</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C101">
         <v>6</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <f>C101+D101</f>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="F101">
-        <f>E101/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>1.25</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <f>G101/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>4</v>
       </c>
       <c r="J101">
-        <f>I101/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K101">
-        <f>E101/(H101+J101)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>4.2857142857142865</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102">
-        <f>C102+D102</f>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="F102">
-        <f>E102/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>1.25</v>
       </c>
       <c r="G102">
         <v>4</v>
       </c>
       <c r="H102">
-        <f>G102/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I102">
         <v>4</v>
       </c>
       <c r="J102">
-        <f>I102/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K102">
-        <f>E102/(H102+J102)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C103">
         <v>6</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E103">
         <f>C103+D103</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F103">
-        <f>E103/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>1.375</v>
       </c>
       <c r="G103">
         <v>4</v>
       </c>
       <c r="H103">
-        <f>G103/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I103">
         <v>4</v>
       </c>
       <c r="J103">
-        <f>I103/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K103">
-        <f>E103/(H103+J103)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>4.125</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <f>C104+D104</f>
-        <v>9</v>
+        <f t="shared" ref="E104:E122" si="16">C104+D104</f>
+        <v>6</v>
       </c>
       <c r="F104">
-        <f>E104/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>0.75</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <f>G104/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J104">
-        <f>I104/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K104">
-        <f>E104/(H104+J104)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>2.2499999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -5200,159 +5197,159 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E105">
-        <f>C105+D105</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="F105">
-        <f>E105/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>0.875</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <f>G105/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J105">
-        <f>I105/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K105">
-        <f>E105/(H105+J105)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>2.6249999999999996</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <f>C106+D106</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="F106">
-        <f>E106/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>0.75</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <f>G106/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J106">
-        <f>I106/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K106">
-        <f>E106/(H106+J106)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>2.2499999999999996</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E107">
-        <f>C107+D107</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="F107">
-        <f>E107/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>1.75</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <f>G107/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J107">
-        <f>I107/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K107">
-        <f>E107/(H107+J107)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <f>C108+D108</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="F108">
-        <f>E108/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="13"/>
+        <v>1.5</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H108">
-        <f>G108/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J108">
-        <f>I108/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="K108">
-        <f>E108/(H108+J108)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>2.5714285714285712</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
@@ -5360,39 +5357,39 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <f>C109+D109</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="F109">
         <f>E109/E$173</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H109">
         <f>G109/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J109">
-        <f>I109/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K109">
-        <f>E109/(H109+J109)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
@@ -5400,119 +5397,119 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>6</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <f>C110+D110</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="F110">
-        <f>E110/E$173</f>
-        <v>1.125</v>
+        <f t="shared" ref="F110:F113" si="17">E110/E$173</f>
+        <v>1.375</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H110">
         <f>G110/G$173</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I110">
         <v>4</v>
       </c>
       <c r="J110">
-        <f>I110/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K110">
-        <f>E110/(H110+J110)</f>
-        <v>6.75</v>
+        <f t="shared" si="6"/>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>4</v>
       </c>
       <c r="E111">
-        <f>C111+D111</f>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F111">
-        <f>E111/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="17"/>
+        <v>1.125</v>
       </c>
       <c r="G111">
         <v>5</v>
       </c>
       <c r="H111">
         <f>G111/G$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I111">
         <v>4</v>
       </c>
       <c r="J111">
-        <f>I111/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K111">
-        <f>E111/(H111+J111)</f>
-        <v>6.666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112">
-        <f>C112+D112</f>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F112">
-        <f>E112/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="17"/>
+        <v>1.125</v>
       </c>
       <c r="G112">
         <v>5</v>
       </c>
       <c r="H112">
         <f>G112/G$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I112">
         <v>4</v>
       </c>
       <c r="J112">
-        <f>I112/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K112">
-        <f>E112/(H112+J112)</f>
-        <v>6.666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
@@ -5520,39 +5517,39 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113">
-        <f>C113+D113</f>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="F113">
-        <f>E113/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H113">
         <f>G113/G$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J113">
-        <f>I113/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K113">
-        <f>E113/(H113+J113)</f>
-        <v>6.666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>3.4285714285714288</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
@@ -5560,279 +5557,279 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <f>C114+D114</f>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="F114">
-        <f>E114/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <f>G114/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="14"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J114">
-        <f>I114/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="K114">
-        <f>E114/(H114+J114)</f>
-        <v>6.666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <f>C115+D115</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F115">
         <f>E115/E$173</f>
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H115">
         <f>G115/G$173</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J115">
-        <f>I115/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K115">
-        <f>E115/(H115+J115)</f>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>6.75</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116">
-        <f>C116+D116</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F116">
-        <f>E116/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="13"/>
+        <v>1.125</v>
       </c>
       <c r="G116">
         <v>4</v>
       </c>
       <c r="H116">
-        <f>G116/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="H116:H132" si="18">G116/G$173</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J116">
-        <f>I116/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K116">
-        <f>E116/(H116+J116)</f>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117">
-        <f>C117+D117</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F117">
-        <f>E117/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="13"/>
+        <v>1.125</v>
       </c>
       <c r="G117">
         <v>5</v>
       </c>
       <c r="H117">
-        <f>G117/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I117">
         <v>5</v>
       </c>
       <c r="J117">
-        <f>I117/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K117">
-        <f>E117/(H117+J117)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118">
-        <f>C118+D118</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F118">
-        <f>E118/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="13"/>
+        <v>1.125</v>
       </c>
       <c r="G118">
         <v>5</v>
       </c>
       <c r="H118">
-        <f>G118/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I118">
         <v>5</v>
       </c>
       <c r="J118">
-        <f>I118/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K118">
-        <f>E118/(H118+J118)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119">
-        <f>C119+D119</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F119">
         <f>E119/E$173</f>
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="G119">
         <v>5</v>
       </c>
       <c r="H119">
-        <f>G119/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I119">
         <v>5</v>
       </c>
       <c r="J119">
-        <f>I119/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K119">
-        <f>E119/(H119+J119)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <f>C120+D120</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F120">
-        <f>E120/E$173</f>
-        <v>1.375</v>
+        <f t="shared" ref="F120:F130" si="19">E120/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <f>G120/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J120">
-        <f>I120/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K120">
-        <f>E120/(H120+J120)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
@@ -5840,159 +5837,159 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <f>C121+D121</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F121">
-        <f>E121/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>1.125</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H121">
-        <f>G121/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J121">
-        <f>I121/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K121">
-        <f>E121/(H121+J121)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <f>C122+D122</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="F122">
-        <f>E122/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>1.125</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <f>G122/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J122">
-        <f>I122/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K122">
-        <f>E122/(H122+J122)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>5</v>
       </c>
       <c r="E123">
         <f>C123+D123</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123">
-        <f>E123/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H123">
-        <f>G123/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J123">
-        <f>I123/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K123">
-        <f>E123/(H123+J123)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>5</v>
       </c>
       <c r="E124">
-        <f>C124+D124</f>
-        <v>11</v>
+        <f t="shared" ref="E124:E137" si="20">C124+D124</f>
+        <v>10</v>
       </c>
       <c r="F124">
-        <f>E124/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H124">
-        <f>G124/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J124">
-        <f>I124/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K124">
-        <f>E124/(H124+J124)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
@@ -6000,39 +5997,39 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D125">
         <v>5</v>
       </c>
       <c r="E125">
-        <f>C125+D125</f>
-        <v>11</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="F125">
-        <f>E125/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H125">
-        <f>G125/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J125">
-        <f>I125/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K125">
-        <f>E125/(H125+J125)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
@@ -6040,39 +6037,39 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <f>C126+D126</f>
-        <v>11</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="F126">
-        <f>E126/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>0.875</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <f>G126/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J126">
-        <f>I126/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K126">
-        <f>E126/(H126+J126)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
@@ -6080,119 +6077,119 @@
         <v>116</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <f>C127+D127</f>
-        <v>11</v>
+        <f t="shared" si="20"/>
+        <v>8</v>
       </c>
       <c r="F127">
-        <f>E127/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <f>G127/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J127">
-        <f>I127/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K127">
-        <f>E127/(H127+J127)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <f>C128+D128</f>
-        <v>11</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="F128">
-        <f>E128/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="19"/>
+        <v>0.875</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H128">
-        <f>G128/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J128">
-        <f>I128/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K128">
-        <f>E128/(H128+J128)</f>
-        <v>6.6</v>
+        <f t="shared" si="6"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C129">
         <v>6</v>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E129">
-        <f>C129+D129</f>
-        <v>12</v>
+        <f t="shared" si="20"/>
+        <v>13</v>
       </c>
       <c r="F129">
-        <f>E129/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>1.625</v>
       </c>
       <c r="G129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H129">
-        <f>G129/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J129">
-        <f>I129/I$173</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K129">
-        <f>E129/(H129+J129)</f>
-        <v>6.545454545454545</v>
+        <f t="shared" si="6"/>
+        <v>3.25</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
@@ -6200,119 +6197,119 @@
         <v>116</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="E130">
-        <f>C130+D130</f>
-        <v>13</v>
-      </c>
       <c r="F130">
-        <f>E130/E$173</f>
-        <v>1.625</v>
+        <f t="shared" si="19"/>
+        <v>0.875</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H130">
-        <f>G130/G$173</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I130">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J130">
-        <f>I130/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K130">
-        <f>E130/(H130+J130)</f>
-        <v>6.5</v>
+        <f t="shared" si="6"/>
+        <v>2.625</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <f>C131+D131</f>
-        <v>13</v>
+        <f t="shared" si="20"/>
+        <v>8</v>
       </c>
       <c r="F131">
         <f>E131/E$173</f>
-        <v>1.625</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <f>G131/G$173</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I131">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J131">
-        <f>I131/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K131">
-        <f>E131/(H131+J131)</f>
-        <v>6.5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <f>C132+D132</f>
-        <v>13</v>
+        <f t="shared" si="20"/>
+        <v>8</v>
       </c>
       <c r="F132">
-        <f>E132/E$173</f>
-        <v>1.625</v>
+        <f t="shared" ref="F132:F141" si="21">E132/E$173</f>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <f>G132/G$173</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J132">
-        <f>I132/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K132">
-        <f>E132/(H132+J132)</f>
-        <v>6.5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
@@ -6320,359 +6317,359 @@
         <v>116</v>
       </c>
       <c r="B133" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <f>C133+D133</f>
-        <v>13</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="F133">
-        <f>E133/E$173</f>
-        <v>1.625</v>
+        <f t="shared" si="21"/>
+        <v>1.25</v>
       </c>
       <c r="G133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H133">
         <f>G133/G$173</f>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J133">
-        <f>I133/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K133">
-        <f>E133/(H133+J133)</f>
-        <v>6.5</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <f>C134+D134</f>
-        <v>12</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="F134">
-        <f>E134/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>0.75</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <f>G134/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="H134:H144" si="22">G134/G$173</f>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J134">
-        <f>I134/I$173</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K134">
-        <f>E134/(H134+J134)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B135" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <f>C135+D135</f>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="F135">
-        <f>E135/E$173</f>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>1.25</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <f>G135/G$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J135">
-        <f>I135/I$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K135">
-        <f>E135/(H135+J135)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3.7499999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <f>C136+D136</f>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="F136">
-        <f>E136/E$173</f>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>0.875</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H136">
-        <f>G136/G$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136">
-        <f>I136/I$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K136">
-        <f>E136/(H136+J136)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E137">
-        <f>C137+D137</f>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="F137">
-        <f>E137/E$173</f>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>0.875</v>
       </c>
       <c r="G137">
         <v>2</v>
       </c>
       <c r="H137">
-        <f>G137/G$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="22"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137">
-        <f>I137/I$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K137">
-        <f>E137/(H137+J137)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>5.25</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138">
         <f>C138+D138</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F138">
-        <f>E138/E$173</f>
-        <v>0.5</v>
+        <f t="shared" si="21"/>
+        <v>1.25</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H138">
-        <f>G138/G$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J138">
-        <f>I138/I$173</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K138">
-        <f>E138/(H138+J138)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <f>C139+D139</f>
-        <v>12</v>
+        <f t="shared" ref="E139:E148" si="23">C139+D139</f>
+        <v>10</v>
       </c>
       <c r="F139">
-        <f>E139/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>1.25</v>
       </c>
       <c r="G139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H139">
-        <f>G139/G$173</f>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J139">
-        <f>I139/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K139">
-        <f>E139/(H139+J139)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C140">
         <v>6</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <f>C140+D140</f>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="F140">
-        <f>E140/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>1.125</v>
       </c>
       <c r="G140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H140">
-        <f>G140/G$173</f>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J140">
-        <f>I140/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K140">
-        <f>E140/(H140+J140)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C141">
         <v>6</v>
       </c>
       <c r="D141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <f>C141+D141</f>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="F141">
-        <f>E141/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>1.125</v>
       </c>
       <c r="G141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H141">
-        <f>G141/G$173</f>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J141">
-        <f>I141/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K141">
-        <f>E141/(H141+J141)</f>
-        <v>6</v>
+        <f t="shared" ref="K141:K173" si="24">E141/(H141+J141)</f>
+        <v>3.375</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -6680,16 +6677,16 @@
         <v>155</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <f>C142+D142</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="F142">
@@ -6697,22 +6694,22 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H142">
-        <f>G142/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="22"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J142">
-        <f>I142/I$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K142">
-        <f>E142/(H142+J142)</f>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
@@ -6720,39 +6717,39 @@
         <v>155</v>
       </c>
       <c r="B143" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <f>C143+D143</f>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="F143">
-        <f>E143/E$173</f>
-        <v>1.25</v>
+        <f t="shared" ref="F143:F151" si="25">E143/E$173</f>
+        <v>1.125</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H143">
-        <f>G143/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J143">
         <f>I143/I$173</f>
-        <v>0.83333333333333337</v>
+        <v>2</v>
       </c>
       <c r="K143">
-        <f>E143/(H143+J143)</f>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>2.25</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
@@ -6760,119 +6757,119 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <f>C144+D144</f>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="F144">
-        <f>E144/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="25"/>
+        <v>0.875</v>
       </c>
       <c r="G144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <f>G144/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="22"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J144">
-        <f>I144/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K144">
-        <f>E144/(H144+J144)</f>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>2.1</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C145">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <f>C145+D145</f>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="F145">
-        <f>E145/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="25"/>
+        <v>0.875</v>
       </c>
       <c r="G145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H145">
         <f>G145/G$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J145">
-        <f>I145/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K145">
-        <f>E145/(H145+J145)</f>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>2.1</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C146">
         <v>6</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <f>C146+D146</f>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="F146">
-        <f>E146/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="25"/>
+        <v>1.125</v>
       </c>
       <c r="G146">
         <v>5</v>
       </c>
       <c r="H146">
-        <f>G146/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="H146:H163" si="26">G146/G$173</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I146">
         <v>5</v>
       </c>
       <c r="J146">
-        <f>I146/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K146">
-        <f>E146/(H146+J146)</f>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
@@ -6880,119 +6877,119 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C147">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <f>C147+D147</f>
-        <v>11</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="F147">
-        <f>E147/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="25"/>
+        <v>0.875</v>
       </c>
       <c r="G147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H147">
-        <f>G147/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>6</v>
       </c>
       <c r="J147">
-        <f>I147/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K147">
-        <f>E147/(H147+J147)</f>
-        <v>5.9999999999999991</v>
+        <f t="shared" si="24"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <f>C148+D148</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="F148">
-        <f>E148/E$173</f>
+        <f t="shared" si="25"/>
         <v>1.375</v>
       </c>
       <c r="G148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H148">
-        <f>G148/G$173</f>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J148">
-        <f>I148/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K148">
-        <f>E148/(H148+J148)</f>
-        <v>5.5</v>
+        <f t="shared" si="24"/>
+        <v>3.3</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C149">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D149">
         <v>5</v>
       </c>
       <c r="E149">
         <f>C149+D149</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F149">
-        <f>E149/E$173</f>
-        <v>1.375</v>
+        <f t="shared" si="25"/>
+        <v>1.25</v>
       </c>
       <c r="G149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H149">
-        <f>G149/G$173</f>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I149">
         <v>6</v>
       </c>
       <c r="J149">
-        <f>I149/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K149">
-        <f>E149/(H149+J149)</f>
-        <v>5.5</v>
+        <f t="shared" si="24"/>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
@@ -7000,39 +6997,39 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <f>C150+D150</f>
+        <f t="shared" ref="E150:E161" si="27">C150+D150</f>
         <v>10</v>
       </c>
       <c r="F150">
-        <f>E150/E$173</f>
+        <f t="shared" si="25"/>
         <v>1.25</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H150">
-        <f>G150/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I150">
         <v>6</v>
       </c>
       <c r="J150">
-        <f>I150/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K150">
-        <f>E150/(H150+J150)</f>
-        <v>5.4545454545454541</v>
+        <f t="shared" si="24"/>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
@@ -7040,39 +7037,39 @@
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C151">
         <v>6</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <f>C151+D151</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>11</v>
       </c>
       <c r="F151">
-        <f>E151/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="25"/>
+        <v>1.375</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H151">
-        <f>G151/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J151">
-        <f>I151/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K151">
-        <f>E151/(H151+J151)</f>
-        <v>5.4</v>
+        <f t="shared" si="24"/>
+        <v>3.3</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
@@ -7080,39 +7077,39 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <f>C152+D152</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>7</v>
       </c>
       <c r="F152">
         <f>E152/E$173</f>
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H152">
-        <f>G152/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>6</v>
       </c>
       <c r="J152">
-        <f>I152/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K152">
-        <f>E152/(H152+J152)</f>
-        <v>5.4</v>
+        <f t="shared" si="24"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
@@ -7120,39 +7117,39 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D153">
         <v>3</v>
       </c>
       <c r="E153">
-        <f>C153+D153</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="F153">
-        <f>E153/E$173</f>
-        <v>1.125</v>
+        <f t="shared" ref="F153:F164" si="28">E153/E$173</f>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>4</v>
       </c>
       <c r="H153">
-        <f>G153/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I153">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J153">
-        <f>I153/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K153">
-        <f>E153/(H153+J153)</f>
-        <v>5.4</v>
+        <f t="shared" si="24"/>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
@@ -7160,39 +7157,39 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154">
-        <f>C154+D154</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="F154">
-        <f>E154/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="G154">
         <v>4</v>
       </c>
       <c r="H154">
-        <f>G154/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I154">
         <v>6</v>
       </c>
       <c r="J154">
         <f>I154/I$173</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K154">
-        <f>E154/(H154+J154)</f>
-        <v>5.4</v>
+        <f t="shared" si="24"/>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
@@ -7200,39 +7197,39 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D155">
         <v>3</v>
       </c>
       <c r="E155">
-        <f>C155+D155</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="F155">
-        <f>E155/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>4</v>
       </c>
       <c r="H155">
-        <f>G155/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I155">
         <v>6</v>
       </c>
       <c r="J155">
-        <f>I155/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K155">
-        <f>E155/(H155+J155)</f>
-        <v>5.4</v>
+        <f t="shared" si="24"/>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
@@ -7240,39 +7237,39 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C156">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <f>C156+D156</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="F156">
-        <f>E156/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="G156">
         <v>5</v>
       </c>
       <c r="H156">
-        <f>G156/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I156">
         <v>5</v>
       </c>
       <c r="J156">
-        <f>I156/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K156">
-        <f>E156/(H156+J156)</f>
-        <v>5.3999999999999995</v>
+        <f t="shared" si="24"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
@@ -7280,39 +7277,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <f>C157+D157</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>6</v>
       </c>
       <c r="F157">
-        <f>E157/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="28"/>
+        <v>0.75</v>
       </c>
       <c r="G157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H157">
-        <f>G157/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J157">
-        <f>I157/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K157">
-        <f>E157/(H157+J157)</f>
-        <v>5.3999999999999995</v>
+        <f t="shared" si="24"/>
+        <v>2.25</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
@@ -7320,119 +7317,119 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <f>C158+D158</f>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="F158">
-        <f>E158/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>5</v>
       </c>
       <c r="H158">
-        <f>G158/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I158">
         <v>5</v>
       </c>
       <c r="J158">
-        <f>I158/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K158">
-        <f>E158/(H158+J158)</f>
-        <v>5.3999999999999995</v>
+        <f t="shared" si="24"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C159">
         <v>6</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <f>C159+D159</f>
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>7</v>
       </c>
       <c r="F159">
-        <f>E159/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>0.875</v>
       </c>
       <c r="G159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H159">
-        <f>G159/G$173</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I159">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J159">
-        <f>I159/I$173</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K159">
-        <f>E159/(H159+J159)</f>
-        <v>5.1428571428571423</v>
+        <f t="shared" si="24"/>
+        <v>2.1</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C160">
         <v>6</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <f>C160+D160</f>
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>9</v>
       </c>
       <c r="F160">
-        <f>E160/E$173</f>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>1.125</v>
       </c>
       <c r="G160">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <f>G160/G$173</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I160">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J160">
-        <f>I160/I$173</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="K160">
-        <f>E160/(H160+J160)</f>
-        <v>5.1428571428571423</v>
+        <f t="shared" si="24"/>
+        <v>2.7</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
@@ -7440,39 +7437,39 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <f>C161+D161</f>
-        <v>10</v>
+        <f t="shared" si="27"/>
+        <v>12</v>
       </c>
       <c r="F161">
-        <f>E161/E$173</f>
-        <v>1.25</v>
+        <f t="shared" si="28"/>
+        <v>1.5</v>
       </c>
       <c r="G161">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H161">
-        <f>G161/G$173</f>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I161">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J161">
-        <f>I161/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K161">
-        <f>E161/(H161+J161)</f>
-        <v>5</v>
+        <f t="shared" si="24"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
@@ -7480,39 +7477,39 @@
         <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E162">
         <f>C162+D162</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F162">
-        <f>E162/E$173</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>1.125</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H162">
-        <f>G162/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J162">
-        <f>I162/I$173</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K162">
-        <f>E162/(H162+J162)</f>
-        <v>4.8000000000000007</v>
+        <f t="shared" si="24"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
@@ -7520,39 +7517,39 @@
         <v>155</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C163">
         <v>6</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <f>C163+D163</f>
-        <v>8</v>
+        <f t="shared" ref="E163:E173" si="29">C163+D163</f>
+        <v>10</v>
       </c>
       <c r="F163">
-        <f>E163/E$173</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>1.25</v>
       </c>
       <c r="G163">
         <v>4</v>
       </c>
       <c r="H163">
-        <f>G163/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I163">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J163">
         <f>I163/I$173</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K163">
-        <f>E163/(H163+J163)</f>
-        <v>4.8000000000000007</v>
+        <f t="shared" si="24"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
@@ -7560,39 +7557,39 @@
         <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164">
-        <f>C164+D164</f>
-        <v>8</v>
+        <f t="shared" si="29"/>
+        <v>7</v>
       </c>
       <c r="F164">
-        <f>E164/E$173</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>0.875</v>
       </c>
       <c r="G164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H164">
         <f>G164/G$173</f>
-        <v>0.83333333333333337</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J164">
-        <f>I164/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="J164:J173" si="30">I164/I$173</f>
+        <v>2</v>
       </c>
       <c r="K164">
-        <f>E164/(H164+J164)</f>
-        <v>4.8</v>
+        <f t="shared" si="24"/>
+        <v>2.1</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
@@ -7600,39 +7597,39 @@
         <v>155</v>
       </c>
       <c r="B165" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C165">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165">
-        <f>C165+D165</f>
-        <v>8</v>
+        <f t="shared" si="29"/>
+        <v>7</v>
       </c>
       <c r="F165">
         <f>E165/E$173</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H165">
-        <f>G165/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="H165:H173" si="31">G165/G$173</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I165">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J165">
-        <f>I165/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="K165">
-        <f>E165/(H165+J165)</f>
-        <v>4.8</v>
+        <f t="shared" si="24"/>
+        <v>2.1</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
@@ -7640,39 +7637,39 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <f>C166+D166</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="F166">
-        <f>E166/E$173</f>
+        <f t="shared" ref="F166:F173" si="32">E166/E$173</f>
         <v>1.125</v>
       </c>
       <c r="G166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H166">
-        <f>G166/G$173</f>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J166">
-        <f>I166/I$173</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K166">
-        <f>E166/(H166+J166)</f>
-        <v>4.5</v>
+        <f t="shared" si="24"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
@@ -7680,47 +7677,47 @@
         <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167">
-        <f>C167+D167</f>
-        <v>9</v>
+        <f t="shared" si="29"/>
+        <v>11</v>
       </c>
       <c r="F167">
-        <f>E167/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="32"/>
+        <v>1.375</v>
       </c>
       <c r="G167">
         <v>6</v>
       </c>
       <c r="H167">
-        <f>G167/G$173</f>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
       <c r="I167">
         <v>6</v>
       </c>
       <c r="J167">
-        <f>I167/I$173</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="K167">
-        <f>E167/(H167+J167)</f>
-        <v>4.5</v>
+        <f t="shared" si="24"/>
+        <v>2.75</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -7729,38 +7726,38 @@
         <v>3</v>
       </c>
       <c r="E168">
-        <f>C168+D168</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="F168">
-        <f>E168/E$173</f>
+        <f t="shared" si="32"/>
         <v>1.125</v>
       </c>
       <c r="G168">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H168">
-        <f>G168/G$173</f>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I168">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J168">
-        <f>I168/I$173</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K168">
-        <f>E168/(H168+J168)</f>
-        <v>4.5</v>
+        <f t="shared" si="24"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -7769,30 +7766,30 @@
         <v>3</v>
       </c>
       <c r="E169">
-        <f>C169+D169</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="F169">
-        <f>E169/E$173</f>
+        <f t="shared" si="32"/>
         <v>1.125</v>
       </c>
       <c r="G169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H169">
-        <f>G169/G$173</f>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J169">
-        <f>I169/I$173</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K169">
-        <f>E169/(H169+J169)</f>
-        <v>4.5</v>
+        <f t="shared" si="24"/>
+        <v>3.375</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
@@ -7800,39 +7797,39 @@
         <v>155</v>
       </c>
       <c r="B170" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <f>C170+D170</f>
-        <v>9</v>
+        <f t="shared" si="29"/>
+        <v>11</v>
       </c>
       <c r="F170">
-        <f>E170/E$173</f>
-        <v>1.125</v>
+        <f t="shared" si="32"/>
+        <v>1.375</v>
       </c>
       <c r="G170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H170">
-        <f>G170/G$173</f>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J170">
-        <f>I170/I$173</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K170">
-        <f>E170/(H170+J170)</f>
-        <v>4.5</v>
+        <f t="shared" si="24"/>
+        <v>3.3</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
@@ -7840,39 +7837,39 @@
         <v>155</v>
       </c>
       <c r="B171" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <f>C171+D171</f>
-        <v>7</v>
+        <f t="shared" si="29"/>
+        <v>11</v>
       </c>
       <c r="F171">
-        <f>E171/E$173</f>
-        <v>0.875</v>
+        <f t="shared" si="32"/>
+        <v>1.375</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H171">
-        <f>G171/G$173</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="31"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I171">
         <v>6</v>
       </c>
       <c r="J171">
-        <f>I171/I$173</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="K171">
-        <f>E171/(H171+J171)</f>
-        <v>4.2</v>
+        <f t="shared" si="24"/>
+        <v>2.9999999999999996</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.4">
@@ -7880,39 +7877,39 @@
         <v>155</v>
       </c>
       <c r="B172" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C172">
         <v>6</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <f>C172+D172</f>
-        <v>7</v>
+        <f t="shared" si="29"/>
+        <v>11</v>
       </c>
       <c r="F172">
-        <f>E172/E$173</f>
-        <v>0.875</v>
+        <f t="shared" si="32"/>
+        <v>1.375</v>
       </c>
       <c r="G172">
         <v>5</v>
       </c>
       <c r="H172">
-        <f>G172/G$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="31"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J172">
-        <f>I172/I$173</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="K172">
-        <f>E172/(H172+J172)</f>
-        <v>4.2</v>
+        <f t="shared" si="24"/>
+        <v>2.9999999999999996</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
@@ -7920,38 +7917,38 @@
         <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <f>C173+D173</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="F173">
-        <f>E173/E$173</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="G173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H173">
-        <f>G173/G$173</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J173">
-        <f>I173/I$173</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="K173">
-        <f>E173/(H173+J173)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
     </row>
@@ -7961,15 +7958,15 @@
       </c>
       <c r="C174">
         <f>SUM(C2:C173)</f>
-        <v>1019</v>
+        <v>784</v>
       </c>
       <c r="D174">
         <f>SUM(D2:D173)</f>
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="E174">
         <f>C174+D174</f>
-        <v>1813</v>
+        <v>1589</v>
       </c>
       <c r="F174">
         <v>100</v>
@@ -7979,18 +7976,13 @@
       </c>
       <c r="I174">
         <f>SUM(I2:I173)</f>
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="J174">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K174" xr:uid="{F2F043FD-DD07-472D-8A07-27FD40F21872}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K174">
-      <sortCondition descending="1" ref="K1:K174"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
